--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_7_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_7_26.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1647694.465918402</v>
+        <v>1744364.442402776</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836237</v>
+        <v>6654055.582836235</v>
       </c>
     </row>
     <row r="8">
@@ -656,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>48.67541755435009</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>307.1861186321483</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -820,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -829,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -838,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -868,19 +870,19 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>80.60925250737162</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>128.7835007017903</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -896,10 +898,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>360.1942891606964</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -908,7 +910,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>326.4550398078959</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -941,22 +943,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -1060,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1096,28 +1098,28 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>54.63122185700568</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>70.63993372640985</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>146.4340874029164</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1151,7 +1153,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,28 +1180,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>12.65378766551392</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.4222199825082</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229335</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1303,7 +1305,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>156.773249007025</v>
+        <v>55.66811582074965</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1351,13 +1353,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1385,10 +1387,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873208</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292547</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1525,25 +1527,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>74.75769145492404</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>104.1375486291687</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1585,16 +1587,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1610,7 +1612,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1625,7 +1627,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292636</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1704,7 +1706,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247747</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1819,13 +1821,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
+        <v>0</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="n">
         <v>203.1977700471494</v>
-      </c>
-      <c r="V16" t="n">
-        <v>0</v>
-      </c>
-      <c r="W16" t="n">
-        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1862,7 +1864,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292547</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2011,7 +2013,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>166.0258082590282</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
@@ -2056,7 +2058,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>76.07834618145937</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2065,10 +2067,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>12.4644487916328</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2101,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292636</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2132,7 +2134,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
@@ -2175,10 +2177,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2236,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>2.451579104185657</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>74.75769145492406</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2118382056129</v>
@@ -2302,10 +2304,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2338,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2369,7 +2371,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
@@ -2412,10 +2414,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2476,16 +2478,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>52.70548389690144</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>52.74455946606789</v>
       </c>
       <c r="G25" t="n">
         <v>166.0258082590282</v>
@@ -2494,7 +2496,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2527,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2573,7 +2575,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>109.1877617881758</v>
+        <v>109.187761788176</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U26" t="n">
         <v>250.995171958902</v>
@@ -2649,10 +2651,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2716,22 +2718,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>114.162703879979</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>52.23490948285903</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
         <v>219.5489492761692</v>
@@ -2810,7 +2812,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2843,7 +2845,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U29" t="n">
         <v>250.995171958902</v>
@@ -2886,10 +2888,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734093895</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2947,19 +2949,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>140.2720647856206</v>
       </c>
       <c r="G31" t="n">
         <v>166.0258082590282</v>
@@ -2968,7 +2970,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>82.39501537729598</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3007,13 +3009,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3153,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734093895</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3190,7 +3192,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3199,13 +3201,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>66.06391530585658</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3238,7 +3240,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>77.31354443380452</v>
       </c>
       <c r="U34" t="n">
         <v>286.2118382056129</v>
@@ -3250,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3317,7 +3319,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396201</v>
+        <v>203.917970139621</v>
       </c>
       <c r="U35" t="n">
         <v>250.995171958902</v>
@@ -3332,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3390,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3421,19 +3423,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>55.42986125998782</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>166.0258082590282</v>
@@ -3472,25 +3474,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>208.5297823800585</v>
+        <v>219.5489492761665</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3627,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734093895</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3661,16 +3663,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>66.33120233356379</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>166.0258082590282</v>
@@ -3709,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -3718,7 +3720,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3727,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>30.40926493756664</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3743,7 +3745,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206834</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.187761788176</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
         <v>203.9179701396201</v>
@@ -3864,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3895,13 +3897,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>90.41948680756549</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -3910,10 +3912,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>189.7690253314419</v>
@@ -3952,19 +3954,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>19.88471653142376</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3997,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292609</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,10 +4027,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.187761788176</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U44" t="n">
         <v>250.995171958902</v>
@@ -4071,10 +4073,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247749</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734099625</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4144,16 +4146,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>18.26879610203983</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>30.96411613815068</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>96.35242040983815</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.9321526700474</v>
       </c>
       <c r="S46" t="n">
         <v>189.7690253314419</v>
@@ -4201,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1053.350203651864</v>
+        <v>1920.409918978289</v>
       </c>
       <c r="C2" t="n">
-        <v>1053.350203651864</v>
+        <v>1551.447402037877</v>
       </c>
       <c r="D2" t="n">
-        <v>1053.350203651864</v>
+        <v>1193.181703431127</v>
       </c>
       <c r="E2" t="n">
-        <v>667.5619510536199</v>
+        <v>1193.181703431127</v>
       </c>
       <c r="F2" t="n">
-        <v>256.5760462640123</v>
+        <v>782.1957986415193</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>364.2319905397062</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4352,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2423.485734520778</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U2" t="n">
-        <v>2169.72394915887</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V2" t="n">
-        <v>2169.72394915887</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W2" t="n">
-        <v>1816.955293888756</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X2" t="n">
-        <v>1443.489535627676</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y2" t="n">
-        <v>1053.350203651864</v>
+        <v>2307.009759042411</v>
       </c>
     </row>
     <row r="3">
@@ -4462,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>418.7159459272334</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>418.7159459272334</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>268.5993065148977</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>268.5993065148977</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>268.5993065148977</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>646.7054968252507</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>646.7054968252507</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V4" t="n">
-        <v>646.7054968252507</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W4" t="n">
-        <v>646.7054968252507</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>418.7159459272334</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>418.7159459272334</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2388.358616186807</v>
+        <v>2113.174258592772</v>
       </c>
       <c r="C5" t="n">
-        <v>2019.396099246395</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="D5" t="n">
-        <v>1661.130400639645</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E5" t="n">
-        <v>1275.342148041401</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F5" t="n">
-        <v>864.3562432517931</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
         <v>534.603677789272</v>
@@ -4562,16 +4564,16 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733128</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4583,34 +4585,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2388.358616186807</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V5" t="n">
-        <v>2388.358616186807</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W5" t="n">
-        <v>2388.358616186807</v>
+        <v>2113.174258592772</v>
       </c>
       <c r="X5" t="n">
-        <v>2388.358616186807</v>
+        <v>2113.174258592772</v>
       </c>
       <c r="Y5" t="n">
-        <v>2388.358616186807</v>
+        <v>2113.174258592772</v>
       </c>
     </row>
     <row r="6">
@@ -4641,7 +4643,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
@@ -4650,19 +4652,19 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,13 +4701,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>190.2718927217162</v>
+        <v>338.1849863041093</v>
       </c>
       <c r="C7" t="n">
-        <v>190.2718927217162</v>
+        <v>338.1849863041093</v>
       </c>
       <c r="D7" t="n">
-        <v>190.2718927217162</v>
+        <v>338.1849863041093</v>
       </c>
       <c r="E7" t="n">
         <v>190.2718927217162</v>
@@ -4720,55 +4722,55 @@
         <v>190.2718927217162</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S7" t="n">
-        <v>672.9459318256204</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T7" t="n">
-        <v>672.9459318256204</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U7" t="n">
-        <v>672.9459318256204</v>
+        <v>409.5384547146243</v>
       </c>
       <c r="V7" t="n">
-        <v>418.2614436197335</v>
+        <v>409.5384547146243</v>
       </c>
       <c r="W7" t="n">
-        <v>418.2614436197335</v>
+        <v>338.1849863041093</v>
       </c>
       <c r="X7" t="n">
-        <v>190.2718927217162</v>
+        <v>338.1849863041093</v>
       </c>
       <c r="Y7" t="n">
-        <v>190.2718927217162</v>
+        <v>338.1849863041093</v>
       </c>
     </row>
     <row r="8">
@@ -4778,40 +4780,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1568.353113282533</v>
+        <v>2255.520561484593</v>
       </c>
       <c r="C8" t="n">
-        <v>1568.353113282533</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="D8" t="n">
-        <v>1210.087414675782</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E8" t="n">
-        <v>1210.087414675782</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F8" t="n">
-        <v>799.1015098861747</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036443</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280442</v>
       </c>
       <c r="N8" t="n">
         <v>1836.345445977174</v>
@@ -4820,34 +4822,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791251</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018221</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018221</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332392</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T8" t="n">
-        <v>2302.336936304454</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="U8" t="n">
-        <v>2302.336936304454</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="V8" t="n">
-        <v>1971.274048960884</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="W8" t="n">
-        <v>1958.492445258344</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="X8" t="n">
-        <v>1958.492445258344</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="Y8" t="n">
-        <v>1568.353113282533</v>
+        <v>2642.120401548715</v>
       </c>
     </row>
     <row r="9">
@@ -4857,73 +4859,73 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036443</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.1903022614628</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571346</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915165</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.81559303506</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>359.1897464970879</v>
+        <v>257.063349339234</v>
       </c>
       <c r="C10" t="n">
-        <v>359.1897464970879</v>
+        <v>257.063349339234</v>
       </c>
       <c r="D10" t="n">
-        <v>359.1897464970879</v>
+        <v>257.063349339234</v>
       </c>
       <c r="E10" t="n">
-        <v>359.1897464970879</v>
+        <v>257.063349339234</v>
       </c>
       <c r="F10" t="n">
-        <v>212.2997989991775</v>
+        <v>110.1734018413237</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866325</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477909</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658208</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502498</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594899</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P10" t="n">
-        <v>728.128984206434</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.128984206434</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R10" t="n">
-        <v>579.982325640618</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S10" t="n">
-        <v>579.982325640618</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T10" t="n">
-        <v>579.982325640618</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U10" t="n">
-        <v>579.982325640618</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="V10" t="n">
-        <v>579.982325640618</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="W10" t="n">
-        <v>579.982325640618</v>
+        <v>438.7118141694737</v>
       </c>
       <c r="X10" t="n">
-        <v>579.982325640618</v>
+        <v>438.7118141694737</v>
       </c>
       <c r="Y10" t="n">
-        <v>359.1897464970879</v>
+        <v>438.7118141694737</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D11" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F11" t="n">
-        <v>850.2139837551615</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G11" t="n">
-        <v>435.141533600158</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H11" t="n">
-        <v>137.5579332089252</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I11" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K11" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L11" t="n">
-        <v>1237.706702364128</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M11" t="n">
-        <v>2216.257005193956</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N11" t="n">
-        <v>3196.009277420603</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O11" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P11" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q11" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R11" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S11" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T11" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V11" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X11" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y11" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="12">
@@ -5094,37 +5096,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D12" t="n">
         <v>647.2053335549413</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F12" t="n">
         <v>341.4333205763708</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I12" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193584</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
@@ -5151,7 +5153,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V12" t="n">
         <v>1808.657265216076</v>
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>982.309177553988</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C13" t="n">
-        <v>813.3729946260811</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D13" t="n">
-        <v>663.2563552137453</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E13" t="n">
-        <v>515.3432616313522</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F13" t="n">
-        <v>368.4533141334418</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G13" t="n">
-        <v>200.7504775081608</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H13" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I13" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J13" t="n">
         <v>140.68366689533</v>
@@ -5233,16 +5235,16 @@
         <v>1163.957642384228</v>
       </c>
       <c r="V13" t="n">
-        <v>1163.957642384228</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W13" t="n">
-        <v>1163.957642384228</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X13" t="n">
-        <v>1163.957642384228</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y13" t="n">
-        <v>1163.957642384228</v>
+        <v>171.0738540998329</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D14" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F14" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H14" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I14" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K14" t="n">
-        <v>818.2062848686767</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L14" t="n">
-        <v>1682.725100522031</v>
+        <v>1898.858917622688</v>
       </c>
       <c r="M14" t="n">
-        <v>2216.257005193956</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N14" t="n">
-        <v>3196.009277420603</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O14" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P14" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q14" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R14" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S14" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T14" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V14" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X14" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y14" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="15">
@@ -5331,13 +5333,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161926</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E15" t="n">
         <v>487.9678785494859</v>
@@ -5346,13 +5348,13 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G15" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H15" t="n">
         <v>114.5683260468565</v>
       </c>
       <c r="I15" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
         <v>189.2383039390118</v>
@@ -5428,10 +5430,10 @@
         <v>339.1038984121913</v>
       </c>
       <c r="H16" t="n">
-        <v>192.886711630049</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I16" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J16" t="n">
         <v>140.68366689533</v>
@@ -5467,10 +5469,10 @@
         <v>1956.343466104704</v>
       </c>
       <c r="U16" t="n">
-        <v>1751.093193329805</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="V16" t="n">
-        <v>1751.093193329805</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="W16" t="n">
         <v>1751.093193329805</v>
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551615</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G17" t="n">
-        <v>435.141533600158</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089252</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I17" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
         <v>451.8458144277729</v>
       </c>
       <c r="K17" t="n">
-        <v>785.6651881176194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L17" t="n">
-        <v>1236.699401366028</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M17" t="n">
-        <v>1770.231306037953</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N17" t="n">
-        <v>2749.9835782646</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O17" t="n">
-        <v>3629.948228594054</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P17" t="n">
-        <v>4195.497197679677</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q17" t="n">
-        <v>4653.975400188665</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R17" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S17" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="18">
@@ -5568,19 +5570,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161925</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G18" t="n">
         <v>205.0702204089889</v>
@@ -5589,37 +5591,37 @@
         <v>114.5683260468564</v>
       </c>
       <c r="I18" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N18" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O18" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q18" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R18" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S18" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T18" t="n">
         <v>2271.877220313403</v>
@@ -5647,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1120.662598458018</v>
+        <v>973.7726509601081</v>
       </c>
       <c r="C19" t="n">
-        <v>951.7264155301116</v>
+        <v>804.8364680322012</v>
       </c>
       <c r="D19" t="n">
-        <v>801.6097761177758</v>
+        <v>654.7198286198654</v>
       </c>
       <c r="E19" t="n">
-        <v>653.6966825353827</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="F19" t="n">
         <v>506.8067350374723</v>
@@ -5665,10 +5667,10 @@
         <v>339.1038984121913</v>
       </c>
       <c r="H19" t="n">
-        <v>192.886711630049</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I19" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J19" t="n">
         <v>140.68366689533</v>
@@ -5695,28 +5697,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R19" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S19" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T19" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U19" t="n">
-        <v>1542.890966501056</v>
+        <v>1376.213694933878</v>
       </c>
       <c r="V19" t="n">
-        <v>1542.890966501056</v>
+        <v>1376.213694933878</v>
       </c>
       <c r="W19" t="n">
-        <v>1542.890966501056</v>
+        <v>1376.213694933878</v>
       </c>
       <c r="X19" t="n">
-        <v>1314.901415603039</v>
+        <v>1376.213694933878</v>
       </c>
       <c r="Y19" t="n">
-        <v>1302.311063288258</v>
+        <v>1155.421115790348</v>
       </c>
     </row>
     <row r="20">
@@ -5726,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D20" t="n">
         <v>1646.988141143014</v>
@@ -5738,64 +5740,64 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F20" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H20" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I20" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
         <v>284.4401654074198</v>
       </c>
       <c r="K20" t="n">
-        <v>939.1634975427194</v>
+        <v>939.1634975427193</v>
       </c>
       <c r="L20" t="n">
-        <v>1682.725100522031</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M20" t="n">
-        <v>2216.257005193956</v>
+        <v>2337.214217867998</v>
       </c>
       <c r="N20" t="n">
-        <v>3196.009277420603</v>
+        <v>2883.99303492678</v>
       </c>
       <c r="O20" t="n">
-        <v>4075.973927750058</v>
+        <v>3763.957685256235</v>
       </c>
       <c r="P20" t="n">
-        <v>4470.748294107236</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q20" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R20" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="21">
@@ -5820,22 +5822,22 @@
         <v>341.4333205763703</v>
       </c>
       <c r="G21" t="n">
-        <v>205.0702204089888</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I21" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193586</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320239</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
@@ -5884,34 +5886,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>171.0738540998329</v>
+        <v>1120.662598458018</v>
       </c>
       <c r="C22" t="n">
-        <v>171.0738540998329</v>
+        <v>951.7264155301116</v>
       </c>
       <c r="D22" t="n">
-        <v>171.0738540998329</v>
+        <v>801.6097761177758</v>
       </c>
       <c r="E22" t="n">
-        <v>171.0738540998329</v>
+        <v>653.6966825353827</v>
       </c>
       <c r="F22" t="n">
-        <v>171.0738540998329</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G22" t="n">
-        <v>171.0738540998329</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H22" t="n">
-        <v>171.0738540998329</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I22" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J22" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K22" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L22" t="n">
         <v>661.2306482927024</v>
@@ -5923,37 +5925,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P22" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q22" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R22" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S22" t="n">
-        <v>1674.827124689058</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="T22" t="n">
-        <v>1453.060509258584</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="U22" t="n">
-        <v>1163.957642384228</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="V22" t="n">
-        <v>909.2731541783409</v>
+        <v>1412.55611102446</v>
       </c>
       <c r="W22" t="n">
-        <v>619.8559841413803</v>
+        <v>1123.138940987499</v>
       </c>
       <c r="X22" t="n">
-        <v>391.866433243363</v>
+        <v>1123.138940987499</v>
       </c>
       <c r="Y22" t="n">
-        <v>171.0738540998329</v>
+        <v>1123.138940987499</v>
       </c>
     </row>
     <row r="23">
@@ -5963,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C23" t="n">
         <v>2005.253839749764</v>
@@ -5972,67 +5974,67 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F23" t="n">
         <v>850.213983755162</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I23" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K23" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L23" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M23" t="n">
-        <v>2461.32865758045</v>
+        <v>2091.135264483405</v>
       </c>
       <c r="N23" t="n">
-        <v>3441.080929807096</v>
+        <v>2637.914081542187</v>
       </c>
       <c r="O23" t="n">
-        <v>4010.914672075804</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P23" t="n">
-        <v>4405.689038432983</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q23" t="n">
-        <v>4653.975400188665</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R23" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U23" t="n">
         <v>4208.252829604874</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W23" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="24">
@@ -6042,37 +6044,37 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I24" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
@@ -6099,7 +6101,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V24" t="n">
         <v>1808.657265216076</v>
@@ -6108,10 +6110,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y24" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3381.752853874611</v>
+        <v>781.8112129900683</v>
       </c>
       <c r="C25" t="n">
-        <v>3381.752853874611</v>
+        <v>612.8750300621614</v>
       </c>
       <c r="D25" t="n">
-        <v>3328.514991352489</v>
+        <v>462.7583906498256</v>
       </c>
       <c r="E25" t="n">
-        <v>3328.514991352489</v>
+        <v>462.7583906498256</v>
       </c>
       <c r="F25" t="n">
-        <v>3328.514991352489</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G25" t="n">
-        <v>3160.812154727208</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H25" t="n">
-        <v>3014.594967945065</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I25" t="n">
-        <v>2917.269290763411</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J25" t="n">
-        <v>2962.391923210347</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K25" t="n">
-        <v>3166.379106159223</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L25" t="n">
-        <v>3482.938904607719</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M25" t="n">
-        <v>3827.095950207268</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N25" t="n">
-        <v>4168.504326913133</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O25" t="n">
-        <v>4467.833925833546</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P25" t="n">
-        <v>4700.441426267205</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q25" t="n">
-        <v>4778.05172241972</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R25" t="n">
-        <v>4778.05172241972</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S25" t="n">
-        <v>4778.05172241972</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="T25" t="n">
-        <v>4556.285106989246</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="U25" t="n">
-        <v>4556.285106989246</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="V25" t="n">
-        <v>4301.600618783359</v>
+        <v>1701.658977898816</v>
       </c>
       <c r="W25" t="n">
-        <v>4012.183448746398</v>
+        <v>1412.241807861855</v>
       </c>
       <c r="X25" t="n">
-        <v>3784.193897848381</v>
+        <v>1184.252256963838</v>
       </c>
       <c r="Y25" t="n">
-        <v>3563.401318704851</v>
+        <v>963.459677820308</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6202,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C26" t="n">
         <v>2005.253839749764</v>
@@ -6209,7 +6211,7 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F26" t="n">
         <v>850.213983755162</v>
@@ -6224,28 +6226,28 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J26" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K26" t="n">
-        <v>618.2595390972663</v>
+        <v>1070.832524924161</v>
       </c>
       <c r="L26" t="n">
-        <v>1482.778354750621</v>
+        <v>1521.86673817257</v>
       </c>
       <c r="M26" t="n">
-        <v>2461.32865758045</v>
+        <v>2055.398642844494</v>
       </c>
       <c r="N26" t="n">
-        <v>3441.080929807096</v>
+        <v>2602.177459903276</v>
       </c>
       <c r="O26" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P26" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q26" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R26" t="n">
         <v>4778.05172241972</v>
@@ -6260,16 +6262,16 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W26" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="27">
@@ -6279,49 +6281,49 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I27" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N27" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O27" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P27" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q27" t="n">
         <v>2594.102460549552</v>
@@ -6336,7 +6338,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V27" t="n">
         <v>1808.657265216076</v>
@@ -6345,10 +6347,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="28">
@@ -6358,34 +6360,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>673.3827746590082</v>
+        <v>391.8664332433621</v>
       </c>
       <c r="C28" t="n">
-        <v>673.3827746590082</v>
+        <v>391.8664332433621</v>
       </c>
       <c r="D28" t="n">
-        <v>558.0669121539789</v>
+        <v>391.8664332433621</v>
       </c>
       <c r="E28" t="n">
-        <v>410.1538185715858</v>
+        <v>391.8664332433621</v>
       </c>
       <c r="F28" t="n">
-        <v>263.2638710736754</v>
+        <v>391.8664332433621</v>
       </c>
       <c r="G28" t="n">
-        <v>95.56103444839441</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H28" t="n">
-        <v>95.56103444839441</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I28" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J28" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K28" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L28" t="n">
         <v>661.2306482927024</v>
@@ -6397,37 +6399,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O28" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P28" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q28" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R28" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S28" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T28" t="n">
-        <v>1734.57685067423</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U28" t="n">
-        <v>1445.473983799873</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V28" t="n">
-        <v>1190.789495593986</v>
+        <v>909.27315417834</v>
       </c>
       <c r="W28" t="n">
-        <v>901.3723255570255</v>
+        <v>619.8559841413794</v>
       </c>
       <c r="X28" t="n">
-        <v>673.3827746590082</v>
+        <v>391.8664332433621</v>
       </c>
       <c r="Y28" t="n">
-        <v>673.3827746590082</v>
+        <v>391.8664332433621</v>
       </c>
     </row>
     <row r="29">
@@ -6449,40 +6451,40 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F29" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551621</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I29" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J29" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K29" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L29" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M29" t="n">
-        <v>2461.32865758045</v>
+        <v>2091.135264483405</v>
       </c>
       <c r="N29" t="n">
-        <v>3441.080929807096</v>
+        <v>2637.914081542187</v>
       </c>
       <c r="O29" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P29" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q29" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R29" t="n">
         <v>4778.05172241972</v>
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3154.542034367488</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C30" t="n">
-        <v>2980.089005086361</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D30" t="n">
-        <v>2831.15459542511</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E30" t="n">
-        <v>2671.917140419654</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F30" t="n">
-        <v>2525.382582446539</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G30" t="n">
-        <v>2389.019482279157</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H30" t="n">
-        <v>2298.517587917024</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I30" t="n">
-        <v>2279.510296318562</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J30" t="n">
-        <v>2373.187565809179</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K30" t="n">
-        <v>2611.451764789527</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L30" t="n">
-        <v>2978.149925102192</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M30" t="n">
-        <v>3425.426250324508</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N30" t="n">
-        <v>3898.949293878963</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O30" t="n">
-        <v>4309.910573297017</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P30" t="n">
-        <v>4620.41016477312</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q30" t="n">
-        <v>4778.05172241972</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R30" t="n">
-        <v>4777.907369012236</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S30" t="n">
-        <v>4648.469482505716</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T30" t="n">
-        <v>4455.826482183571</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
-        <v>4227.758635317987</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V30" t="n">
-        <v>3992.606527086244</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W30" t="n">
-        <v>3738.369170358043</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
-        <v>3530.51767015251</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y30" t="n">
-        <v>3322.757371387556</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="31">
@@ -6595,34 +6597,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>492.7083461157126</v>
+        <v>965.3449658766821</v>
       </c>
       <c r="C31" t="n">
-        <v>492.7083461157126</v>
+        <v>796.4087829487752</v>
       </c>
       <c r="D31" t="n">
-        <v>492.7083461157126</v>
+        <v>796.4087829487752</v>
       </c>
       <c r="E31" t="n">
-        <v>492.7083461157126</v>
+        <v>648.4956893663821</v>
       </c>
       <c r="F31" t="n">
-        <v>492.7083461157126</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G31" t="n">
-        <v>325.0055094904316</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H31" t="n">
-        <v>178.7883227082893</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I31" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J31" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K31" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L31" t="n">
         <v>661.2306482927024</v>
@@ -6634,37 +6636,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O31" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P31" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q31" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R31" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S31" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T31" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="U31" t="n">
-        <v>1667.240599230347</v>
+        <v>1475.554715057173</v>
       </c>
       <c r="V31" t="n">
-        <v>1412.556111024461</v>
+        <v>1475.554715057173</v>
       </c>
       <c r="W31" t="n">
-        <v>1123.1389409875</v>
+        <v>1186.137545020212</v>
       </c>
       <c r="X31" t="n">
-        <v>895.1493900894825</v>
+        <v>1186.137545020212</v>
       </c>
       <c r="Y31" t="n">
-        <v>674.3568109459524</v>
+        <v>965.3449658766821</v>
       </c>
     </row>
     <row r="32">
@@ -6674,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I32" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J32" t="n">
         <v>284.4401654074198</v>
@@ -6704,46 +6706,46 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L32" t="n">
-        <v>1237.706702364128</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M32" t="n">
-        <v>2216.257005193957</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N32" t="n">
-        <v>3196.009277420604</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O32" t="n">
         <v>4075.973927750058</v>
       </c>
       <c r="P32" t="n">
-        <v>4470.748294107237</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q32" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R32" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S32" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T32" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3154.542034367489</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C33" t="n">
-        <v>2980.089005086362</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D33" t="n">
-        <v>2831.154595425111</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E33" t="n">
-        <v>2671.917140419655</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F33" t="n">
-        <v>2525.38258244654</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G33" t="n">
-        <v>2389.019482279158</v>
+        <v>205.0702204089896</v>
       </c>
       <c r="H33" t="n">
-        <v>2298.517587917025</v>
+        <v>114.5683260468573</v>
       </c>
       <c r="I33" t="n">
-        <v>2279.510296318563</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J33" t="n">
-        <v>2373.18756580918</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K33" t="n">
-        <v>2611.451764789528</v>
+        <v>427.5025029193591</v>
       </c>
       <c r="L33" t="n">
-        <v>2978.149925102193</v>
+        <v>794.2006632320245</v>
       </c>
       <c r="M33" t="n">
-        <v>3425.426250324509</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N33" t="n">
-        <v>3898.949293878964</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O33" t="n">
-        <v>4309.910573297018</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P33" t="n">
-        <v>4620.410164773121</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q33" t="n">
-        <v>4778.051722419721</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R33" t="n">
-        <v>4777.907369012237</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S33" t="n">
-        <v>4648.469482505717</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T33" t="n">
-        <v>4455.826482183572</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U33" t="n">
-        <v>4227.758635317988</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V33" t="n">
-        <v>3992.606527086245</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W33" t="n">
-        <v>3738.369170358043</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X33" t="n">
-        <v>3530.517670152511</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y33" t="n">
-        <v>3322.757371387557</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>498.9312815832557</v>
+        <v>3236.322113103653</v>
       </c>
       <c r="C34" t="n">
-        <v>329.9950986553488</v>
+        <v>3067.385930175747</v>
       </c>
       <c r="D34" t="n">
-        <v>329.9950986553488</v>
+        <v>2917.269290763411</v>
       </c>
       <c r="E34" t="n">
-        <v>329.9950986553488</v>
+        <v>2917.269290763411</v>
       </c>
       <c r="F34" t="n">
-        <v>329.9950986553488</v>
+        <v>2917.269290763411</v>
       </c>
       <c r="G34" t="n">
-        <v>162.2922620300677</v>
+        <v>2917.269290763411</v>
       </c>
       <c r="H34" t="n">
-        <v>162.2922620300677</v>
+        <v>2917.269290763411</v>
       </c>
       <c r="I34" t="n">
-        <v>95.56103444839442</v>
+        <v>2917.269290763411</v>
       </c>
       <c r="J34" t="n">
-        <v>140.68366689533</v>
+        <v>2962.391923210347</v>
       </c>
       <c r="K34" t="n">
-        <v>344.6708498442064</v>
+        <v>3166.379106159223</v>
       </c>
       <c r="L34" t="n">
-        <v>661.2306482927024</v>
+        <v>3482.938904607719</v>
       </c>
       <c r="M34" t="n">
-        <v>1005.387693892251</v>
+        <v>3827.095950207268</v>
       </c>
       <c r="N34" t="n">
-        <v>1346.796070598116</v>
+        <v>4168.504326913133</v>
       </c>
       <c r="O34" t="n">
-        <v>1646.12566951853</v>
+        <v>4467.833925833546</v>
       </c>
       <c r="P34" t="n">
-        <v>1878.733169952189</v>
+        <v>4700.441426267205</v>
       </c>
       <c r="Q34" t="n">
-        <v>1956.343466104704</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="R34" t="n">
-        <v>1956.343466104704</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S34" t="n">
-        <v>1956.343466104704</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="T34" t="n">
-        <v>1734.57685067423</v>
+        <v>4699.957233092645</v>
       </c>
       <c r="U34" t="n">
-        <v>1445.473983799873</v>
+        <v>4410.854366218288</v>
       </c>
       <c r="V34" t="n">
-        <v>1190.789495593986</v>
+        <v>4156.169878012402</v>
       </c>
       <c r="W34" t="n">
-        <v>901.3723255570255</v>
+        <v>3866.752707975441</v>
       </c>
       <c r="X34" t="n">
-        <v>901.3723255570255</v>
+        <v>3638.763157077423</v>
       </c>
       <c r="Y34" t="n">
-        <v>680.5797464134954</v>
+        <v>3417.970577933893</v>
       </c>
     </row>
     <row r="35">
@@ -6932,37 +6934,37 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I35" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K35" t="n">
-        <v>939.1634975427194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L35" t="n">
-        <v>1803.682313196074</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M35" t="n">
-        <v>2337.214217867999</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N35" t="n">
-        <v>3316.966490094645</v>
+        <v>2667.236715577531</v>
       </c>
       <c r="O35" t="n">
-        <v>4075.973927750058</v>
+        <v>3547.201365906985</v>
       </c>
       <c r="P35" t="n">
-        <v>4470.748294107236</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q35" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R35" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S35" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T35" t="n">
         <v>4461.783306331037</v>
@@ -6971,13 +6973,13 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V35" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W35" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X35" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y35" t="n">
         <v>2760.816196754298</v>
@@ -6990,28 +6992,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D36" t="n">
         <v>647.2053335549413</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F36" t="n">
         <v>341.4333205763708</v>
       </c>
       <c r="G36" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I36" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
         <v>189.2383039390118</v>
@@ -7020,7 +7022,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L36" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M36" t="n">
         <v>1241.47698845434</v>
@@ -7047,7 +7049,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U36" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V36" t="n">
         <v>1808.657265216076</v>
@@ -7069,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>825.859557377715</v>
+        <v>709.6864413838553</v>
       </c>
       <c r="C37" t="n">
-        <v>656.9233744498081</v>
+        <v>709.6864413838553</v>
       </c>
       <c r="D37" t="n">
-        <v>506.8067350374723</v>
+        <v>709.6864413838553</v>
       </c>
       <c r="E37" t="n">
-        <v>506.8067350374723</v>
+        <v>653.6966825353827</v>
       </c>
       <c r="F37" t="n">
         <v>506.8067350374723</v>
@@ -7087,10 +7089,10 @@
         <v>339.1038984121913</v>
       </c>
       <c r="H37" t="n">
-        <v>192.886711630049</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I37" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J37" t="n">
         <v>140.68366689533</v>
@@ -7120,25 +7122,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S37" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T37" t="n">
-        <v>1745.707322286463</v>
+        <v>1542.890966501059</v>
       </c>
       <c r="U37" t="n">
-        <v>1745.707322286463</v>
+        <v>1253.788099626703</v>
       </c>
       <c r="V37" t="n">
-        <v>1745.707322286463</v>
+        <v>999.1036114208158</v>
       </c>
       <c r="W37" t="n">
-        <v>1456.290152249502</v>
+        <v>709.6864413838553</v>
       </c>
       <c r="X37" t="n">
-        <v>1228.300601351485</v>
+        <v>709.6864413838553</v>
       </c>
       <c r="Y37" t="n">
-        <v>1007.508022207955</v>
+        <v>709.6864413838553</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D38" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F38" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G38" t="n">
         <v>435.1415336001585</v>
@@ -7169,7 +7171,7 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I38" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
         <v>284.4401654074198</v>
@@ -7190,34 +7192,34 @@
         <v>4075.973927750058</v>
       </c>
       <c r="P38" t="n">
-        <v>4470.748294107236</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q38" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R38" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S38" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T38" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V38" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X38" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y38" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3154.542034367488</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C39" t="n">
-        <v>2980.089005086361</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D39" t="n">
-        <v>2831.15459542511</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E39" t="n">
-        <v>2671.917140419654</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F39" t="n">
-        <v>2525.382582446539</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G39" t="n">
-        <v>2389.019482279157</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H39" t="n">
-        <v>2298.517587917024</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I39" t="n">
-        <v>2279.510296318562</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
-        <v>2373.187565809179</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K39" t="n">
-        <v>2611.451764789527</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L39" t="n">
-        <v>2978.149925102192</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M39" t="n">
-        <v>3425.426250324508</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N39" t="n">
-        <v>3898.949293878963</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O39" t="n">
-        <v>4309.910573297017</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P39" t="n">
-        <v>4620.41016477312</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q39" t="n">
-        <v>4778.05172241972</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R39" t="n">
-        <v>4777.907369012236</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S39" t="n">
-        <v>4648.469482505716</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T39" t="n">
-        <v>4455.826482183571</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U39" t="n">
-        <v>4227.758635317987</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V39" t="n">
-        <v>3992.606527086244</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W39" t="n">
-        <v>3738.369170358043</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X39" t="n">
-        <v>3530.51767015251</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y39" t="n">
-        <v>3322.757371387556</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="40">
@@ -7306,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>973.7726509601081</v>
+        <v>720.69789701373</v>
       </c>
       <c r="C40" t="n">
-        <v>804.8364680322012</v>
+        <v>720.69789701373</v>
       </c>
       <c r="D40" t="n">
-        <v>654.7198286198654</v>
+        <v>720.69789701373</v>
       </c>
       <c r="E40" t="n">
-        <v>506.8067350374723</v>
+        <v>653.6966825353827</v>
       </c>
       <c r="F40" t="n">
         <v>506.8067350374723</v>
@@ -7324,10 +7326,10 @@
         <v>339.1038984121913</v>
       </c>
       <c r="H40" t="n">
-        <v>192.886711630049</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I40" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J40" t="n">
         <v>140.68366689533</v>
@@ -7357,25 +7359,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S40" t="n">
-        <v>1764.65758193153</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T40" t="n">
-        <v>1764.65758193153</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U40" t="n">
-        <v>1475.554715057174</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="V40" t="n">
-        <v>1475.554715057174</v>
+        <v>1412.556111024461</v>
       </c>
       <c r="W40" t="n">
-        <v>1186.137545020213</v>
+        <v>1123.1389409875</v>
       </c>
       <c r="X40" t="n">
-        <v>1186.137545020213</v>
+        <v>1123.1389409875</v>
       </c>
       <c r="Y40" t="n">
-        <v>1155.421115790348</v>
+        <v>902.3463618439697</v>
       </c>
     </row>
     <row r="41">
@@ -7388,7 +7390,7 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D41" t="n">
         <v>1646.988141143014</v>
@@ -7406,7 +7408,7 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I41" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
         <v>284.4401654074198</v>
@@ -7415,40 +7417,40 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L41" t="n">
-        <v>1237.706702364128</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M41" t="n">
-        <v>2216.257005193956</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N41" t="n">
-        <v>3196.009277420603</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O41" t="n">
         <v>4075.973927750058</v>
       </c>
       <c r="P41" t="n">
-        <v>4470.748294107236</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q41" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R41" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S41" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T41" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V41" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X41" t="n">
         <v>3150.95552873011</v>
@@ -7464,28 +7466,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G42" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H42" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I42" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J42" t="n">
         <v>189.2383039390118</v>
@@ -7521,7 +7523,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U42" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V42" t="n">
         <v>1808.657265216076</v>
@@ -7530,10 +7532,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X42" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y42" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="43">
@@ -7543,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1023.336921276364</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="C43" t="n">
-        <v>854.4007383484569</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="D43" t="n">
-        <v>704.2840989361212</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="E43" t="n">
-        <v>556.371005353728</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F43" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G43" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H43" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I43" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J43" t="n">
         <v>140.68366689533</v>
@@ -7591,28 +7593,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R43" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S43" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T43" t="n">
-        <v>1453.060509258584</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U43" t="n">
-        <v>1453.060509258584</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V43" t="n">
-        <v>1453.060509258584</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W43" t="n">
-        <v>1453.060509258584</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X43" t="n">
-        <v>1225.070958360567</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y43" t="n">
-        <v>1204.985386106604</v>
+        <v>481.6968904858347</v>
       </c>
     </row>
     <row r="44">
@@ -7622,7 +7624,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C44" t="n">
         <v>2005.253839749764</v>
@@ -7631,67 +7633,67 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F44" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H44" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I44" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J44" t="n">
-        <v>284.4401654074198</v>
+        <v>284.4401654074196</v>
       </c>
       <c r="K44" t="n">
-        <v>750.1800661608906</v>
+        <v>618.2595390972656</v>
       </c>
       <c r="L44" t="n">
-        <v>1614.698881814245</v>
+        <v>1482.77835475062</v>
       </c>
       <c r="M44" t="n">
-        <v>2593.249184644074</v>
+        <v>2461.328657580448</v>
       </c>
       <c r="N44" t="n">
-        <v>3573.001456870721</v>
+        <v>3441.080929807094</v>
       </c>
       <c r="O44" t="n">
-        <v>4075.973927750058</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P44" t="n">
-        <v>4470.748294107236</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q44" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R44" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S44" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T44" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U44" t="n">
         <v>4208.252829604874</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W44" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="45">
@@ -7701,43 +7703,43 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G45" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I45" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193584</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320233</v>
       </c>
       <c r="M45" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454342</v>
       </c>
       <c r="N45" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O45" t="n">
         <v>2125.96131142685</v>
@@ -7758,7 +7760,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U45" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V45" t="n">
         <v>1808.657265216076</v>
@@ -7767,10 +7769,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X45" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y45" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>260.9043113423046</v>
+        <v>391.8664332433611</v>
       </c>
       <c r="C46" t="n">
-        <v>260.9043113423046</v>
+        <v>391.8664332433611</v>
       </c>
       <c r="D46" t="n">
-        <v>260.9043113423046</v>
+        <v>391.8664332433611</v>
       </c>
       <c r="E46" t="n">
-        <v>260.9043113423046</v>
+        <v>391.8664332433611</v>
       </c>
       <c r="F46" t="n">
-        <v>114.0143638443942</v>
+        <v>391.8664332433611</v>
       </c>
       <c r="G46" t="n">
-        <v>95.56103444839441</v>
+        <v>224.1635966180801</v>
       </c>
       <c r="H46" t="n">
-        <v>95.56103444839441</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I46" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J46" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K46" t="n">
-        <v>344.6708498442064</v>
+        <v>344.670849844206</v>
       </c>
       <c r="L46" t="n">
-        <v>661.2306482927024</v>
+        <v>661.230648292702</v>
       </c>
       <c r="M46" t="n">
         <v>1005.387693892251</v>
       </c>
       <c r="N46" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598115</v>
       </c>
       <c r="O46" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518528</v>
       </c>
       <c r="P46" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952188</v>
       </c>
       <c r="Q46" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104702</v>
       </c>
       <c r="R46" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.51300886223</v>
       </c>
       <c r="S46" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689056</v>
       </c>
       <c r="T46" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258582</v>
       </c>
       <c r="U46" t="n">
-        <v>1253.788099626699</v>
+        <v>1163.957642384226</v>
       </c>
       <c r="V46" t="n">
-        <v>999.1036114208126</v>
+        <v>909.273154178339</v>
       </c>
       <c r="W46" t="n">
-        <v>709.6864413838521</v>
+        <v>619.8559841413785</v>
       </c>
       <c r="X46" t="n">
-        <v>481.6968904858347</v>
+        <v>391.8664332433611</v>
       </c>
       <c r="Y46" t="n">
-        <v>260.9043113423046</v>
+        <v>391.8664332433611</v>
       </c>
     </row>
   </sheetData>
@@ -8070,7 +8072,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>274.4264991783518</v>
+        <v>274.4264991783515</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8298,7 +8300,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>251.4045252050821</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8313,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8459,7 +8461,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928316</v>
       </c>
       <c r="N8" t="n">
         <v>437.3469244119842</v>
@@ -8529,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270198</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8547,10 +8549,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>275.0442842992674</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747027</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8687,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>170.1140909277297</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8924,31 +8926,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>201.9664098701115</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9164,7 +9166,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -9173,13 +9175,13 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P17" t="n">
-        <v>172.4995987156004</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
@@ -9404,19 +9406,19 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>295.4822118493972</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>315.1679217109336</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -9635,28 +9637,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>67.53663776704173</v>
+        <v>344.7025836476853</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9872,31 +9874,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>288.0478149561031</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>133.2530576400246</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10109,31 +10111,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>133.2530576400246</v>
+        <v>344.7025836476844</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10352,7 +10354,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>170.1140909277306</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
         <v>449.5135334928325</v>
@@ -10361,7 +10363,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -10583,28 +10585,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119842</v>
+        <v>29.61882225792135</v>
       </c>
       <c r="O35" t="n">
-        <v>258.6211785616921</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -10835,7 +10837,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>133.2530576400246</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -11063,7 +11065,7 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>170.1140909277297</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
         <v>449.5135334928325</v>
@@ -11072,7 +11074,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -11297,7 +11299,7 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>133.2530576400246</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
@@ -11309,7 +11311,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>133.2530576400293</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -23413,25 +23415,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>105.0742887270133</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>40.61746628515206</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
         <v>96.35242040983809</v>
@@ -23473,16 +23475,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23707,13 +23709,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>83.01406815846352</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>83.32522828944164</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23899,7 +23901,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23935,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23944,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>210.1334920241535</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23953,10 +23955,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>206.120204560462</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>177.3804010777516</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>21.59472895491403</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24190,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24364,16 +24366,16 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>95.90998912131091</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>92.67648855686335</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24382,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S25" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
         <v>286.2118382056129</v>
@@ -24604,22 +24606,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>34.45276913823339</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>113.7908987761692</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24835,19 +24837,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>5.148983237310603</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24856,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>13.95740503254211</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>219.5489492761692</v>
@@ -24895,13 +24897,13 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25078,7 +25080,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25087,13 +25089,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>30.28850510398151</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25126,7 +25128,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>142.2354048423647</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25138,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25309,19 +25311,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>91.00410138658135</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25360,25 +25362,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>11.01916689611068</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25549,16 +25551,16 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>80.10276031300538</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25597,7 +25599,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
         <v>219.5489492761692</v>
@@ -25606,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25615,7 +25617,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>188.1753884145282</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25783,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>58.19598621064686</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25798,10 +25800,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
         <v>96.35242040983809</v>
@@ -25831,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25840,19 +25842,19 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>198.699936820671</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26032,16 +26034,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>147.7570121569884</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>113.7908987761701</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26089,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>897877.740896677</v>
+        <v>897877.7408966769</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>897877.740896677</v>
+        <v>897877.7408966769</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>897877.740896677</v>
+        <v>897877.7408966769</v>
       </c>
     </row>
     <row r="11">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>897877.740896677</v>
+        <v>897877.7408966769</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>897877.740896677</v>
+        <v>897877.7408966769</v>
       </c>
     </row>
   </sheetData>
@@ -26317,40 +26319,40 @@
         <v>533677.1504117844</v>
       </c>
       <c r="D2" t="n">
-        <v>533677.1504117848</v>
+        <v>533677.1504117843</v>
       </c>
       <c r="E2" t="n">
-        <v>516206.3229530783</v>
+        <v>516206.3229530781</v>
       </c>
       <c r="F2" t="n">
         <v>516206.3229530781</v>
       </c>
       <c r="G2" t="n">
+        <v>516206.3229530781</v>
+      </c>
+      <c r="H2" t="n">
         <v>516206.3229530782</v>
       </c>
-      <c r="H2" t="n">
-        <v>516206.3229530784</v>
-      </c>
       <c r="I2" t="n">
-        <v>516206.3229530782</v>
+        <v>516206.3229530783</v>
       </c>
       <c r="J2" t="n">
-        <v>516206.3229530781</v>
+        <v>516206.3229530783</v>
       </c>
       <c r="K2" t="n">
         <v>516206.3229530782</v>
       </c>
       <c r="L2" t="n">
+        <v>516206.3229530783</v>
+      </c>
+      <c r="M2" t="n">
         <v>516206.3229530781</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>516206.3229530783</v>
       </c>
-      <c r="N2" t="n">
-        <v>516206.3229530782</v>
-      </c>
       <c r="O2" t="n">
-        <v>516206.3229530783</v>
+        <v>516206.3229530784</v>
       </c>
       <c r="P2" t="n">
         <v>516206.3229530782</v>
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934069</v>
+        <v>727377.4139934067</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.62584001373034e-10</v>
       </c>
       <c r="M3" t="n">
-        <v>129642.3148389447</v>
+        <v>129642.3148389449</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,43 +26423,43 @@
         <v>201064.5059277315</v>
       </c>
       <c r="D4" t="n">
-        <v>201064.5059277316</v>
+        <v>201064.5059277315</v>
       </c>
       <c r="E4" t="n">
         <v>25090.72367499381</v>
       </c>
       <c r="F4" t="n">
+        <v>25090.72367499382</v>
+      </c>
+      <c r="G4" t="n">
         <v>25090.72367499381</v>
       </c>
-      <c r="G4" t="n">
-        <v>25090.72367499379</v>
-      </c>
       <c r="H4" t="n">
-        <v>25090.72367499381</v>
+        <v>25090.72367499384</v>
       </c>
       <c r="I4" t="n">
-        <v>25090.7236749938</v>
+        <v>25090.72367499383</v>
       </c>
       <c r="J4" t="n">
         <v>25090.72367499381</v>
       </c>
       <c r="K4" t="n">
+        <v>25090.72367499382</v>
+      </c>
+      <c r="L4" t="n">
         <v>25090.72367499381</v>
       </c>
-      <c r="L4" t="n">
+      <c r="M4" t="n">
         <v>25090.72367499382</v>
       </c>
-      <c r="M4" t="n">
-        <v>25090.7236749938</v>
-      </c>
       <c r="N4" t="n">
-        <v>25090.72367499381</v>
+        <v>25090.72367499382</v>
       </c>
       <c r="O4" t="n">
-        <v>25090.72367499381</v>
+        <v>25090.72367499382</v>
       </c>
       <c r="P4" t="n">
-        <v>25090.72367499381</v>
+        <v>25090.72367499387</v>
       </c>
     </row>
     <row r="5">
@@ -26470,19 +26472,19 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="F5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="G5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="H5" t="n">
         <v>96383.51825371364</v>
@@ -26497,16 +26499,16 @@
         <v>96383.51825371364</v>
       </c>
       <c r="L5" t="n">
+        <v>96383.51825371364</v>
+      </c>
+      <c r="M5" t="n">
         <v>96383.51825371366</v>
       </c>
-      <c r="M5" t="n">
-        <v>96383.51825371364</v>
-      </c>
       <c r="N5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="O5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="P5" t="n">
         <v>96383.51825371364</v>
@@ -26519,40 +26521,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-340214.3127939011</v>
+        <v>-340214.3127939012</v>
       </c>
       <c r="C6" t="n">
-        <v>249753.5664206435</v>
+        <v>249753.5664206434</v>
       </c>
       <c r="D6" t="n">
-        <v>249753.5664206439</v>
+        <v>249753.5664206433</v>
       </c>
       <c r="E6" t="n">
-        <v>-332645.3329690361</v>
+        <v>-332645.332969036</v>
       </c>
       <c r="F6" t="n">
+        <v>394732.0810243707</v>
+      </c>
+      <c r="G6" t="n">
         <v>394732.0810243706</v>
       </c>
-      <c r="G6" t="n">
-        <v>394732.0810243707</v>
-      </c>
       <c r="H6" t="n">
-        <v>394732.081024371</v>
+        <v>394732.0810243709</v>
       </c>
       <c r="I6" t="n">
         <v>394732.0810243707</v>
       </c>
       <c r="J6" t="n">
-        <v>218308.8618317778</v>
+        <v>218308.8618317779</v>
       </c>
       <c r="K6" t="n">
         <v>394732.0810243707</v>
       </c>
       <c r="L6" t="n">
-        <v>394732.0810243707</v>
+        <v>394732.0810243706</v>
       </c>
       <c r="M6" t="n">
-        <v>265089.7661854262</v>
+        <v>265089.7661854257</v>
       </c>
       <c r="N6" t="n">
         <v>394732.0810243707</v>
@@ -26561,7 +26563,7 @@
         <v>394732.0810243709</v>
       </c>
       <c r="P6" t="n">
-        <v>394732.0810243707</v>
+        <v>394732.0810243713</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170864</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26777,7 +26779,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="P3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593297</v>
       </c>
     </row>
     <row r="4">
@@ -26790,10 +26792,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
         <v>1194.51293060493</v>
@@ -26957,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762118</v>
+        <v>712.0330363762116</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26987,7 +26989,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -26999,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-8.291437776966332e-14</v>
       </c>
     </row>
     <row r="4">
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503748</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503744</v>
+        <v>520.225657850375</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503748</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>365.1087524664449</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>16.73665413220886</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,25 +27426,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27540,7 +27542,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27549,7 +27551,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27558,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,25 +27584,25 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>144.4258529507127</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>157.4983735401874</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27616,10 +27618,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>5.078602610311123</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27628,7 +27630,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>87.32913021289909</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27664,19 +27666,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27780,7 +27782,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27795,7 +27797,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,28 +27818,28 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>157.5143170930132</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>215.8830646101812</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,16 +27852,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>218.8388043680911</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27871,7 +27873,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,28 +27900,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481177</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>336.5871810518991</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28023,16 +28025,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>10.53655325202595</v>
+        <v>111.6416864383013</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853703</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491434</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28071,13 +28073,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -30037,7 +30039,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>-3.77869151724681e-13</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -30195,7 +30197,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>2.733694752047692e-12</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -31045,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31513,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554463</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727435</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081576</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630668</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405366</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338302</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119864</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954665</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044136</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633791</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.6043567772738</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473549</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141104</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188909</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890687</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396472</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649101</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478006</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983121</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736699</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923046</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479576</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639064</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034978</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372663</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619149</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078606</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644438</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492003</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813575</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302234</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246923</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M10" t="n">
-        <v>106.7776065917249</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666593</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175838</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383795</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678004</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701162</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695335</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197222</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315608</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31847,7 +31849,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
         <v>609.6478166837925</v>
@@ -32333,7 +32335,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
@@ -32461,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I20" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32546,40 +32548,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O21" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32619,13 +32621,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32634,16 +32636,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32652,16 +32654,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I23" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32783,40 +32785,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138801</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O24" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32856,13 +32858,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32871,16 +32873,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32889,16 +32891,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I26" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J26" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T26" t="n">
         <v>19.1778794245112</v>
@@ -33020,40 +33022,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O27" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33093,13 +33095,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H28" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
@@ -33108,16 +33110,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M28" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P28" t="n">
         <v>237.6785118802169</v>
@@ -33126,16 +33128,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I29" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J29" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T29" t="n">
         <v>19.1778794245112</v>
@@ -33257,40 +33259,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837931</v>
       </c>
       <c r="O30" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33330,13 +33332,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H31" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
@@ -33345,16 +33347,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M31" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P31" t="n">
         <v>237.6785118802169</v>
@@ -33363,16 +33365,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33992,7 +33994,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34217,7 +34219,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N42" t="n">
         <v>609.6478166837925</v>
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681595</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844664</v>
       </c>
       <c r="I44" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974798</v>
       </c>
       <c r="J44" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953986</v>
       </c>
       <c r="K44" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003806</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623187</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574988</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095017</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099053</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746408</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781686</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563567</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806942</v>
       </c>
       <c r="T44" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451119</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345275</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502564</v>
       </c>
       <c r="H45" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798529</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752251</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026436</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353154</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138792</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233475</v>
+        <v>593.92830182335</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837919</v>
       </c>
       <c r="O45" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970245</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002923</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987484</v>
       </c>
       <c r="R45" t="n">
-        <v>145.5365940905541</v>
+        <v>145.536594090554</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238312</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898497</v>
+        <v>9.44815837589849</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462214</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430536</v>
       </c>
       <c r="H46" t="n">
-        <v>17.47215759311879</v>
+        <v>17.47215759311878</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742014</v>
       </c>
       <c r="J46" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702022</v>
       </c>
       <c r="L46" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098818</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316432</v>
+        <v>308.049502431643</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883113</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023085999</v>
       </c>
       <c r="P46" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802167</v>
       </c>
       <c r="Q46" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895879</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712208</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553033</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112289</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,13 +34789,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
-        <v>325.145920326212</v>
+        <v>325.1459203262118</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34933,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>289.2671274730086</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343418</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.53613944353</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060963</v>
+        <v>485.8144648060957</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492235</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
-        <v>406.563508753045</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116796</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898688</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031297</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713856</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262937</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>296.2227415328948</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.811094813734</v>
+        <v>54.3752747153553</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713948</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535655</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N10" t="n">
-        <v>148.3708461458879</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873144</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L11" t="n">
-        <v>625.7042053200619</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>888.8531821509645</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35495,7 +35497,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
         <v>478.3061046004592</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K14" t="n">
-        <v>539.157696425512</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L14" t="n">
-        <v>873.2513289427826</v>
+        <v>800.2926980400159</v>
       </c>
       <c r="M14" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35884,7 +35886,7 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L17" t="n">
         <v>455.5901143923322</v>
@@ -35893,13 +35895,13 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>888.8531821509645</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P17" t="n">
-        <v>571.2615849349722</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q17" t="n">
         <v>463.1092954636242</v>
@@ -35981,7 +35983,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36118,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K20" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L20" t="n">
-        <v>751.0723262417293</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N20" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O20" t="n">
-        <v>888.8531821509645</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>713.9299079303053</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36291,13 +36293,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,28 +36357,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L23" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M23" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N23" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O23" t="n">
-        <v>575.5896386552608</v>
+        <v>852.7555845359043</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R23" t="n">
         <v>125.3296184152072</v>
@@ -36434,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340054</v>
+        <v>370.402182134006</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L25" t="n">
         <v>319.7573721701981</v>
@@ -36528,13 +36530,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P25" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554005</v>
+        <v>625.2391015115035</v>
       </c>
       <c r="L26" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M26" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N26" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O26" t="n">
-        <v>641.3060585282437</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P27" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K28" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L28" t="n">
         <v>319.7573721701981</v>
@@ -36765,13 +36767,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O28" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P28" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q28" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L29" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M29" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N29" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O29" t="n">
-        <v>641.3060585282437</v>
+        <v>852.7555845359034</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004598</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P30" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K31" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L31" t="n">
         <v>319.7573721701981</v>
@@ -37002,13 +37004,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O31" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P31" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q31" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37072,7 +37074,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
-        <v>625.7042053200628</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M32" t="n">
         <v>988.4346493230593</v>
@@ -37081,7 +37083,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O32" t="n">
-        <v>888.8531821509645</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P32" t="n">
         <v>398.7619862193719</v>
@@ -37303,28 +37305,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L35" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
-        <v>989.6487598248956</v>
+        <v>581.9206576708328</v>
       </c>
       <c r="O35" t="n">
-        <v>766.6741794499112</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R35" t="n">
         <v>59.61319854222478</v>
@@ -37555,7 +37557,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O38" t="n">
-        <v>641.3060585282437</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P38" t="n">
         <v>398.7619862193719</v>
@@ -37640,7 +37642,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37783,7 +37785,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
-        <v>625.7042053200619</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M41" t="n">
         <v>988.4346493230593</v>
@@ -37792,7 +37794,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O41" t="n">
-        <v>888.8531821509645</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P41" t="n">
         <v>398.7619862193719</v>
@@ -37865,7 +37867,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N42" t="n">
         <v>478.3061046004592</v>
@@ -38014,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687123</v>
       </c>
       <c r="K44" t="n">
-        <v>470.4443441954251</v>
+        <v>337.1912865554</v>
       </c>
       <c r="L44" t="n">
-        <v>873.2513289427826</v>
+        <v>873.2513289427819</v>
       </c>
       <c r="M44" t="n">
-        <v>988.4346493230593</v>
+        <v>988.4346493230586</v>
       </c>
       <c r="N44" t="n">
-        <v>989.6487598248956</v>
+        <v>989.6487598248949</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882191</v>
+        <v>641.3060585282478</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193713</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037191</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222455</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597693</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609564</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340054</v>
+        <v>370.402182134005</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013316</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004586</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525801</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859621</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127269</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306611</v>
       </c>
       <c r="K46" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443194</v>
       </c>
       <c r="L46" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701979</v>
       </c>
       <c r="M46" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934836</v>
       </c>
       <c r="N46" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675398</v>
       </c>
       <c r="O46" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226395</v>
       </c>
       <c r="P46" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451102</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789351</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_7_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_7_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1744364.442402776</v>
+        <v>1738642.83043489</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836235</v>
+        <v>6654055.582836238</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.8827095093</v>
+        <v>806345.8827095106</v>
       </c>
     </row>
     <row r="9">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -676,7 +676,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>307.1861186321483</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>167.6682923486906</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -819,19 +819,19 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>59.66385641544559</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -873,13 +873,13 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>128.7835007017903</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,19 +895,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>360.1942891606964</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>13.62152856464951</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1110,19 +1110,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>70.63993372640985</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>155.2114886365811</v>
       </c>
     </row>
     <row r="8">
@@ -1135,7 +1135,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>146.4340874029164</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>270.7773459850746</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1290,22 +1290,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>59.72683757586869</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>55.66811582074965</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1381,13 +1381,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G11" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873208</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
         <v>41.57692977292595</v>
@@ -1527,25 +1527,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>74.75769145492404</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465744</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1584,19 +1584,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>107.6868466020772</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1627,7 +1627,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292636</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1666,7 +1666,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1767,25 +1767,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,19 +1815,19 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>203.4068132192029</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>203.1977700471494</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634814</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1900,7 +1900,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
-        <v>250.995171958902</v>
+        <v>250.9951719589016</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2004,25 +2004,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,25 +2049,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>173.6268892744757</v>
       </c>
       <c r="T19" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>76.07834618145937</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2101,7 +2101,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292636</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2134,7 +2134,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
@@ -2177,10 +2177,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2.451579104185657</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2247,19 +2247,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>126.0960504902297</v>
       </c>
       <c r="G22" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
         <v>286.2118382056129</v>
@@ -2338,7 +2338,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2371,7 +2371,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
@@ -2414,10 +2414,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2478,22 +2478,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>52.74455946606789</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2526,13 +2526,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>173.6268892744708</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2575,7 +2575,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>109.187761788176</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
         <v>250.995171958902</v>
@@ -2651,10 +2651,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2712,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2727,13 +2727,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>52.23490948285903</v>
+        <v>36.15999212057524</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2118382056129</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2845,7 +2845,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
         <v>250.995171958902</v>
@@ -2888,10 +2888,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2955,22 +2955,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>140.2720647856206</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,22 +3000,22 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>251.5023521518545</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3189,19 +3189,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>81.72898226868554</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3240,7 +3240,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>77.31354443380452</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.2118382056129</v>
@@ -3286,7 +3286,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292547</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3319,7 +3319,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>203.917970139621</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
         <v>250.995171958902</v>
@@ -3423,16 +3423,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>102.9786181363414</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>55.42986125998782</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -3474,25 +3474,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761665</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>66.33120233356379</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>215.9919723025125</v>
       </c>
       <c r="U40" t="n">
         <v>286.2118382056129</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3745,7 +3745,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.6830416206834</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3897,19 +3897,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>90.41948680756549</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
         <v>189.7690253314419</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>113.5103646250816</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292609</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,10 +4027,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
         <v>250.995171958902</v>
@@ -4073,10 +4073,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247749</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734099625</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4149,13 +4149,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>30.96411613815068</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983815</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.9321526700474</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
         <v>189.7690253314419</v>
@@ -4191,7 +4191,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>181.1375494785995</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1920.409918978289</v>
+        <v>1251.855211652197</v>
       </c>
       <c r="C2" t="n">
-        <v>1551.447402037877</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="D2" t="n">
-        <v>1193.181703431127</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E2" t="n">
-        <v>1193.181703431127</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F2" t="n">
-        <v>782.1957986415193</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G2" t="n">
-        <v>364.2319905397062</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
         <v>53.94298182036445</v>
@@ -4333,10 +4333,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4357,25 +4357,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2527.787179554899</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2309.152512526961</v>
       </c>
       <c r="U2" t="n">
-        <v>2697.149091018222</v>
+        <v>2309.152512526961</v>
       </c>
       <c r="V2" t="n">
-        <v>2697.149091018222</v>
+        <v>1978.089625183391</v>
       </c>
       <c r="W2" t="n">
-        <v>2697.149091018222</v>
+        <v>1625.320969913277</v>
       </c>
       <c r="X2" t="n">
-        <v>2697.149091018222</v>
+        <v>1251.855211652197</v>
       </c>
       <c r="Y2" t="n">
-        <v>2307.009759042411</v>
+        <v>1251.855211652197</v>
       </c>
     </row>
     <row r="3">
@@ -4424,10 +4424,10 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4521,19 +4521,19 @@
         <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>598.0446400632119</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>343.360151857325</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="5">
@@ -4543,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2113.174258592772</v>
+        <v>2079.343073798764</v>
       </c>
       <c r="C5" t="n">
-        <v>1749.341643278937</v>
+        <v>1710.380556858352</v>
       </c>
       <c r="D5" t="n">
-        <v>1749.341643278937</v>
+        <v>1352.114858251602</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>966.3266056533573</v>
       </c>
       <c r="F5" t="n">
         <v>952.5674858910851</v>
@@ -4564,16 +4564,16 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733128</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4588,7 +4588,7 @@
         <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
         <v>2642.120401548716</v>
@@ -4606,13 +4606,13 @@
         <v>2465.942913862886</v>
       </c>
       <c r="W5" t="n">
-        <v>2113.174258592772</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X5" t="n">
-        <v>2113.174258592772</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="Y5" t="n">
-        <v>2113.174258592772</v>
+        <v>2465.942913862886</v>
       </c>
     </row>
     <row r="6">
@@ -4643,7 +4643,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>338.1849863041093</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>338.1849863041093</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>338.1849863041093</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>409.5384547146243</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>409.5384547146243</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>338.1849863041093</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="X7" t="n">
-        <v>338.1849863041093</v>
+        <v>210.7222632714565</v>
       </c>
       <c r="Y7" t="n">
-        <v>338.1849863041093</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2255.520561484593</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C8" t="n">
-        <v>2107.607341885688</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D8" t="n">
-        <v>1749.341643278937</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E8" t="n">
-        <v>1363.553390680693</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533142</v>
@@ -4813,10 +4813,10 @@
         <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280442</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V8" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W8" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X8" t="n">
-        <v>2642.120401548715</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="Y8" t="n">
-        <v>2642.120401548715</v>
+        <v>1978.468598880909</v>
       </c>
     </row>
     <row r="9">
@@ -4859,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4904,28 +4904,28 @@
         <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>257.063349339234</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C10" t="n">
-        <v>257.063349339234</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D10" t="n">
-        <v>257.063349339234</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>257.063349339234</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>110.1734018413237</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>438.7118141694737</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X10" t="n">
-        <v>438.7118141694737</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y10" t="n">
-        <v>438.7118141694737</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="11">
@@ -5029,10 +5029,10 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F11" t="n">
-        <v>850.2139837551624</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H11" t="n">
         <v>137.5579332089257</v>
@@ -5047,22 +5047,22 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L11" t="n">
-        <v>1557.603359811481</v>
+        <v>1797.117834600129</v>
       </c>
       <c r="M11" t="n">
-        <v>2091.135264483406</v>
+        <v>2330.649739272054</v>
       </c>
       <c r="N11" t="n">
-        <v>2637.914081542188</v>
+        <v>2877.428556330836</v>
       </c>
       <c r="O11" t="n">
-        <v>3482.142110232732</v>
+        <v>3757.393206660291</v>
       </c>
       <c r="P11" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q11" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R11" t="n">
         <v>4778.051722419721</v>
@@ -5096,37 +5096,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089891</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I12" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193584</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L12" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
@@ -5162,10 +5162,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X12" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y12" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="13">
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>95.56103444839442</v>
+        <v>873.2202818640333</v>
       </c>
       <c r="C13" t="n">
-        <v>95.56103444839442</v>
+        <v>704.2840989361264</v>
       </c>
       <c r="D13" t="n">
-        <v>95.56103444839442</v>
+        <v>704.2840989361264</v>
       </c>
       <c r="E13" t="n">
-        <v>95.56103444839442</v>
+        <v>556.371005353728</v>
       </c>
       <c r="F13" t="n">
-        <v>95.56103444839442</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G13" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H13" t="n">
         <v>95.56103444839442</v>
@@ -5232,19 +5232,19 @@
         <v>1453.060509258584</v>
       </c>
       <c r="U13" t="n">
-        <v>1163.957642384228</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="V13" t="n">
-        <v>909.2731541783409</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="W13" t="n">
-        <v>619.8559841413803</v>
+        <v>1163.643339221624</v>
       </c>
       <c r="X13" t="n">
-        <v>391.866433243363</v>
+        <v>1054.868746694273</v>
       </c>
       <c r="Y13" t="n">
-        <v>171.0738540998329</v>
+        <v>1054.868746694273</v>
       </c>
     </row>
     <row r="14">
@@ -5257,49 +5257,49 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D14" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F14" t="n">
-        <v>850.2139837551624</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H14" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I14" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K14" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L14" t="n">
-        <v>1898.858917622688</v>
+        <v>1069.293752345675</v>
       </c>
       <c r="M14" t="n">
-        <v>2432.390822294613</v>
+        <v>2047.844055175504</v>
       </c>
       <c r="N14" t="n">
-        <v>2979.169639353395</v>
+        <v>3027.596327402151</v>
       </c>
       <c r="O14" t="n">
-        <v>3482.142110232732</v>
+        <v>3907.560977731605</v>
       </c>
       <c r="P14" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q14" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R14" t="n">
         <v>4778.051722419721</v>
@@ -5317,7 +5317,7 @@
         <v>3877.189942261304</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X14" t="n">
         <v>3150.95552873011</v>
@@ -5363,7 +5363,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1120.662598458018</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C16" t="n">
-        <v>951.7264155301116</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D16" t="n">
-        <v>801.6097761177758</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E16" t="n">
-        <v>653.6966825353827</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F16" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G16" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H16" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I16" t="n">
         <v>95.56103444839442</v>
@@ -5463,25 +5463,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S16" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T16" t="n">
-        <v>1956.343466104704</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U16" t="n">
-        <v>1956.343466104704</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V16" t="n">
-        <v>1956.343466104704</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W16" t="n">
-        <v>1751.093193329805</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X16" t="n">
-        <v>1523.103642431788</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y16" t="n">
-        <v>1302.311063288258</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="17">
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G17" t="n">
         <v>435.1415336001585</v>
@@ -5515,28 +5515,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K17" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L17" t="n">
-        <v>1557.603359811481</v>
+        <v>1085.926319971173</v>
       </c>
       <c r="M17" t="n">
-        <v>2091.135264483406</v>
+        <v>2064.476622801002</v>
       </c>
       <c r="N17" t="n">
-        <v>2637.914081542188</v>
+        <v>3044.228895027648</v>
       </c>
       <c r="O17" t="n">
-        <v>3482.142110232732</v>
+        <v>3547.201365906985</v>
       </c>
       <c r="P17" t="n">
-        <v>4195.497197679678</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q17" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R17" t="n">
         <v>4778.051722419721</v>
@@ -5570,64 +5570,64 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C18" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G18" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I18" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K18" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L18" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N18" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O18" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q18" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R18" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S18" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T18" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V18" t="n">
         <v>1808.657265216076</v>
@@ -5636,10 +5636,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="19">
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>973.7726509601081</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C19" t="n">
-        <v>804.8364680322012</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D19" t="n">
-        <v>654.7198286198654</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E19" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F19" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G19" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H19" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I19" t="n">
         <v>95.56103444839442</v>
@@ -5697,28 +5697,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R19" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S19" t="n">
-        <v>1674.827124689058</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T19" t="n">
-        <v>1453.060509258584</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U19" t="n">
-        <v>1376.213694933878</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V19" t="n">
-        <v>1376.213694933878</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W19" t="n">
-        <v>1376.213694933878</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X19" t="n">
-        <v>1376.213694933878</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y19" t="n">
-        <v>1155.421115790348</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="20">
@@ -5728,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D20" t="n">
         <v>1646.988141143014</v>
@@ -5740,34 +5740,34 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551624</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H20" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I20" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>284.4401654074198</v>
+        <v>416.3606924710451</v>
       </c>
       <c r="K20" t="n">
-        <v>939.1634975427193</v>
+        <v>750.1800661608916</v>
       </c>
       <c r="L20" t="n">
-        <v>1803.682313196074</v>
+        <v>1614.698881814246</v>
       </c>
       <c r="M20" t="n">
-        <v>2337.214217867998</v>
+        <v>2593.249184644075</v>
       </c>
       <c r="N20" t="n">
-        <v>2883.99303492678</v>
+        <v>3573.001456870722</v>
       </c>
       <c r="O20" t="n">
-        <v>3763.957685256235</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P20" t="n">
         <v>4470.748294107237</v>
@@ -5785,19 +5785,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="21">
@@ -5807,37 +5807,37 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C21" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G21" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H21" t="n">
         <v>114.5683260468565</v>
       </c>
       <c r="I21" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193586</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320239</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
@@ -5849,22 +5849,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P21" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q21" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R21" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S21" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T21" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U21" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V21" t="n">
         <v>1808.657265216076</v>
@@ -5873,10 +5873,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="22">
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1120.662598458018</v>
+        <v>709.6864413838471</v>
       </c>
       <c r="C22" t="n">
-        <v>951.7264155301116</v>
+        <v>540.7502584559402</v>
       </c>
       <c r="D22" t="n">
-        <v>801.6097761177758</v>
+        <v>390.6336190436044</v>
       </c>
       <c r="E22" t="n">
-        <v>653.6966825353827</v>
+        <v>390.6336190436044</v>
       </c>
       <c r="F22" t="n">
-        <v>506.8067350374723</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G22" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H22" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I22" t="n">
         <v>95.56103444839442</v>
@@ -5913,49 +5913,49 @@
         <v>140.68366689533</v>
       </c>
       <c r="K22" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442013</v>
       </c>
       <c r="L22" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482926974</v>
       </c>
       <c r="M22" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892246</v>
       </c>
       <c r="N22" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598111</v>
       </c>
       <c r="O22" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.125669518525</v>
       </c>
       <c r="P22" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952184</v>
       </c>
       <c r="Q22" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104699</v>
       </c>
       <c r="R22" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104699</v>
       </c>
       <c r="S22" t="n">
-        <v>1956.343466104703</v>
+        <v>1764.657581931525</v>
       </c>
       <c r="T22" t="n">
-        <v>1956.343466104703</v>
+        <v>1542.890966501051</v>
       </c>
       <c r="U22" t="n">
-        <v>1667.240599230347</v>
+        <v>1253.788099626694</v>
       </c>
       <c r="V22" t="n">
-        <v>1412.55611102446</v>
+        <v>999.1036114208076</v>
       </c>
       <c r="W22" t="n">
-        <v>1123.138940987499</v>
+        <v>709.6864413838471</v>
       </c>
       <c r="X22" t="n">
-        <v>1123.138940987499</v>
+        <v>709.6864413838471</v>
       </c>
       <c r="Y22" t="n">
-        <v>1123.138940987499</v>
+        <v>709.6864413838471</v>
       </c>
     </row>
     <row r="23">
@@ -5965,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C23" t="n">
         <v>2005.253839749764</v>
@@ -5974,67 +5974,67 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F23" t="n">
         <v>850.213983755162</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I23" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>451.8458144277728</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K23" t="n">
-        <v>1106.569146563072</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L23" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M23" t="n">
-        <v>2091.135264483405</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N23" t="n">
-        <v>2637.914081542187</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O23" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P23" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q23" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R23" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U23" t="n">
         <v>4208.252829604874</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W23" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="24">
@@ -6044,43 +6044,43 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G24" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I24" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390117</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320247</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M24" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N24" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O24" t="n">
         <v>2125.96131142685</v>
@@ -6089,7 +6089,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q24" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R24" t="n">
         <v>2593.958107142068</v>
@@ -6098,16 +6098,16 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T24" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V24" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W24" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X24" t="n">
         <v>1346.568408282342</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>781.8112129900683</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C25" t="n">
-        <v>612.8750300621614</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D25" t="n">
-        <v>462.7583906498256</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E25" t="n">
-        <v>462.7583906498256</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F25" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G25" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H25" t="n">
         <v>95.56103444839442</v>
@@ -6150,7 +6150,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K25" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L25" t="n">
         <v>661.2306482927024</v>
@@ -6159,40 +6159,40 @@
         <v>1005.387693892251</v>
       </c>
       <c r="N25" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598111</v>
       </c>
       <c r="O25" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.125669518525</v>
       </c>
       <c r="P25" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952184</v>
       </c>
       <c r="Q25" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104699</v>
       </c>
       <c r="R25" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104699</v>
       </c>
       <c r="S25" t="n">
-        <v>1956.343466104703</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T25" t="n">
-        <v>1956.343466104703</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U25" t="n">
-        <v>1956.343466104703</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V25" t="n">
-        <v>1701.658977898816</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W25" t="n">
-        <v>1412.241807861855</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X25" t="n">
-        <v>1184.252256963838</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y25" t="n">
-        <v>963.459677820308</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="26">
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C26" t="n">
         <v>2005.253839749764</v>
@@ -6211,13 +6211,13 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F26" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H26" t="n">
         <v>137.5579332089257</v>
@@ -6226,28 +6226,28 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J26" t="n">
-        <v>451.8458144277728</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K26" t="n">
-        <v>1070.832524924161</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L26" t="n">
-        <v>1521.86673817257</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M26" t="n">
-        <v>2055.398642844494</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N26" t="n">
-        <v>2602.177459903276</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O26" t="n">
-        <v>3482.142110232731</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P26" t="n">
-        <v>4195.497197679677</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q26" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R26" t="n">
         <v>4778.05172241972</v>
@@ -6262,16 +6262,16 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W26" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="27">
@@ -6281,49 +6281,49 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G27" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I27" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L27" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N27" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O27" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P27" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q27" t="n">
         <v>2594.102460549552</v>
@@ -6338,7 +6338,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V27" t="n">
         <v>1808.657265216076</v>
@@ -6347,10 +6347,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="28">
@@ -6360,34 +6360,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>391.8664332433621</v>
+        <v>301.0224619425389</v>
       </c>
       <c r="C28" t="n">
-        <v>391.8664332433621</v>
+        <v>132.086279014632</v>
       </c>
       <c r="D28" t="n">
-        <v>391.8664332433621</v>
+        <v>132.086279014632</v>
       </c>
       <c r="E28" t="n">
-        <v>391.8664332433621</v>
+        <v>132.086279014632</v>
       </c>
       <c r="F28" t="n">
-        <v>391.8664332433621</v>
+        <v>132.086279014632</v>
       </c>
       <c r="G28" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H28" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I28" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J28" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K28" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L28" t="n">
         <v>661.2306482927024</v>
@@ -6399,37 +6399,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O28" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P28" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q28" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R28" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S28" t="n">
-        <v>1674.827124689057</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T28" t="n">
-        <v>1453.060509258583</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="U28" t="n">
-        <v>1163.957642384227</v>
+        <v>1475.554715057174</v>
       </c>
       <c r="V28" t="n">
-        <v>909.27315417834</v>
+        <v>1220.870226851287</v>
       </c>
       <c r="W28" t="n">
-        <v>619.8559841413794</v>
+        <v>931.4530568143261</v>
       </c>
       <c r="X28" t="n">
-        <v>391.8664332433621</v>
+        <v>703.4635059163088</v>
       </c>
       <c r="Y28" t="n">
-        <v>391.8664332433621</v>
+        <v>482.6709267727787</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551621</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I29" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>451.8458144277728</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K29" t="n">
-        <v>1106.569146563072</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L29" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M29" t="n">
-        <v>2091.135264483405</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N29" t="n">
-        <v>2637.914081542187</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O29" t="n">
-        <v>3482.142110232731</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P29" t="n">
-        <v>4195.497197679677</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q29" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R29" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="30">
@@ -6533,22 +6533,22 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G30" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H30" t="n">
         <v>114.5683260468565</v>
       </c>
       <c r="I30" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L30" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
@@ -6597,34 +6597,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>965.3449658766821</v>
+        <v>709.4168978689405</v>
       </c>
       <c r="C31" t="n">
-        <v>796.4087829487752</v>
+        <v>540.4807149410336</v>
       </c>
       <c r="D31" t="n">
-        <v>796.4087829487752</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="E31" t="n">
-        <v>648.4956893663821</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F31" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G31" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H31" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I31" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J31" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K31" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L31" t="n">
         <v>661.2306482927024</v>
@@ -6636,37 +6636,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O31" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P31" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q31" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R31" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S31" t="n">
-        <v>1764.657581931529</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T31" t="n">
-        <v>1764.657581931529</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U31" t="n">
-        <v>1475.554715057173</v>
+        <v>1702.300686153336</v>
       </c>
       <c r="V31" t="n">
-        <v>1475.554715057173</v>
+        <v>1447.616197947449</v>
       </c>
       <c r="W31" t="n">
-        <v>1186.137545020212</v>
+        <v>1158.199027910488</v>
       </c>
       <c r="X31" t="n">
-        <v>1186.137545020212</v>
+        <v>930.2094770124706</v>
       </c>
       <c r="Y31" t="n">
-        <v>965.3449658766821</v>
+        <v>709.4168978689405</v>
       </c>
     </row>
     <row r="32">
@@ -6679,25 +6679,25 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F32" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H32" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I32" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
         <v>284.4401654074198</v>
@@ -6706,25 +6706,25 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L32" t="n">
-        <v>1482.778354750621</v>
+        <v>1069.293752345675</v>
       </c>
       <c r="M32" t="n">
-        <v>2461.32865758045</v>
+        <v>2047.844055175504</v>
       </c>
       <c r="N32" t="n">
-        <v>3441.080929807096</v>
+        <v>3027.596327402151</v>
       </c>
       <c r="O32" t="n">
-        <v>4075.973927750058</v>
+        <v>3530.568798281487</v>
       </c>
       <c r="P32" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q32" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R32" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S32" t="n">
         <v>4667.761053946815</v>
@@ -6733,19 +6733,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="33">
@@ -6755,37 +6755,37 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G33" t="n">
-        <v>205.0702204089896</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468573</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I33" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193591</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320245</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
@@ -6821,10 +6821,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X33" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y33" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3236.322113103653</v>
+        <v>492.7083461157126</v>
       </c>
       <c r="C34" t="n">
-        <v>3067.385930175747</v>
+        <v>492.7083461157126</v>
       </c>
       <c r="D34" t="n">
-        <v>2917.269290763411</v>
+        <v>492.7083461157126</v>
       </c>
       <c r="E34" t="n">
-        <v>2917.269290763411</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="F34" t="n">
-        <v>2917.269290763411</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G34" t="n">
-        <v>2917.269290763411</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H34" t="n">
-        <v>2917.269290763411</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I34" t="n">
-        <v>2917.269290763411</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J34" t="n">
-        <v>2962.391923210347</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K34" t="n">
-        <v>3166.379106159223</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L34" t="n">
-        <v>3482.938904607719</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M34" t="n">
-        <v>3827.095950207268</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N34" t="n">
-        <v>4168.504326913133</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O34" t="n">
-        <v>4467.833925833546</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P34" t="n">
-        <v>4700.441426267205</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q34" t="n">
-        <v>4778.05172241972</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R34" t="n">
-        <v>4778.05172241972</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S34" t="n">
-        <v>4778.05172241972</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T34" t="n">
-        <v>4699.957233092645</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U34" t="n">
-        <v>4410.854366218288</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="V34" t="n">
-        <v>4156.169878012402</v>
+        <v>1412.556111024461</v>
       </c>
       <c r="W34" t="n">
-        <v>3866.752707975441</v>
+        <v>1123.1389409875</v>
       </c>
       <c r="X34" t="n">
-        <v>3638.763157077423</v>
+        <v>895.1493900894825</v>
       </c>
       <c r="Y34" t="n">
-        <v>3417.970577933893</v>
+        <v>674.3568109459524</v>
       </c>
     </row>
     <row r="35">
@@ -6913,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C35" t="n">
         <v>2005.253839749764</v>
       </c>
       <c r="D35" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E35" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F35" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551615</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001585</v>
+        <v>435.141533600158</v>
       </c>
       <c r="H35" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089252</v>
       </c>
       <c r="I35" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J35" t="n">
         <v>451.8458144277729</v>
@@ -6943,28 +6943,28 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L35" t="n">
-        <v>1557.603359811481</v>
+        <v>1898.858917622687</v>
       </c>
       <c r="M35" t="n">
-        <v>2091.135264483406</v>
+        <v>2432.390822294612</v>
       </c>
       <c r="N35" t="n">
-        <v>2667.236715577531</v>
+        <v>2979.169639353394</v>
       </c>
       <c r="O35" t="n">
-        <v>3547.201365906985</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P35" t="n">
-        <v>4260.556453353931</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q35" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R35" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S35" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T35" t="n">
         <v>4461.783306331037</v>
@@ -6973,16 +6973,16 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V35" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W35" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X35" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y35" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="36">
@@ -6992,28 +6992,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D36" t="n">
         <v>647.2053335549413</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F36" t="n">
         <v>341.4333205763708</v>
       </c>
       <c r="G36" t="n">
-        <v>205.0702204089894</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I36" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J36" t="n">
         <v>189.2383039390118</v>
@@ -7022,7 +7022,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L36" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M36" t="n">
         <v>1241.47698845434</v>
@@ -7049,7 +7049,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U36" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V36" t="n">
         <v>1808.657265216076</v>
@@ -7071,13 +7071,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>709.6864413838553</v>
+        <v>1120.662598458018</v>
       </c>
       <c r="C37" t="n">
-        <v>709.6864413838553</v>
+        <v>951.7264155301116</v>
       </c>
       <c r="D37" t="n">
-        <v>709.6864413838553</v>
+        <v>801.6097761177758</v>
       </c>
       <c r="E37" t="n">
         <v>653.6966825353827</v>
@@ -7089,10 +7089,10 @@
         <v>339.1038984121913</v>
       </c>
       <c r="H37" t="n">
-        <v>192.8867116300491</v>
+        <v>192.886711630049</v>
       </c>
       <c r="I37" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J37" t="n">
         <v>140.68366689533</v>
@@ -7122,25 +7122,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S37" t="n">
-        <v>1764.65758193153</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T37" t="n">
-        <v>1542.890966501059</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U37" t="n">
-        <v>1253.788099626703</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V37" t="n">
-        <v>999.1036114208158</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="W37" t="n">
-        <v>709.6864413838553</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="X37" t="n">
-        <v>709.6864413838553</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="Y37" t="n">
-        <v>709.6864413838553</v>
+        <v>1224.681404656343</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D38" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F38" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551617</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H38" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089255</v>
       </c>
       <c r="I38" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J38" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K38" t="n">
-        <v>618.2595390972663</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L38" t="n">
-        <v>1482.778354750621</v>
+        <v>1453.840519464783</v>
       </c>
       <c r="M38" t="n">
-        <v>2461.32865758045</v>
+        <v>2432.390822294612</v>
       </c>
       <c r="N38" t="n">
-        <v>3441.080929807096</v>
+        <v>2979.169639353394</v>
       </c>
       <c r="O38" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P38" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q38" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R38" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S38" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T38" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V38" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X38" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y38" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="39">
@@ -7229,28 +7229,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G39" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H39" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I39" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J39" t="n">
         <v>189.2383039390118</v>
@@ -7286,7 +7286,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U39" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V39" t="n">
         <v>1808.657265216076</v>
@@ -7295,10 +7295,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X39" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y39" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="40">
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>720.69789701373</v>
+        <v>264.4972173763013</v>
       </c>
       <c r="C40" t="n">
-        <v>720.69789701373</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D40" t="n">
-        <v>720.69789701373</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E40" t="n">
-        <v>653.6966825353827</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F40" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G40" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H40" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I40" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J40" t="n">
         <v>140.68366689533</v>
@@ -7359,25 +7359,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S40" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T40" t="n">
-        <v>1956.343466104704</v>
+        <v>1546.483872535053</v>
       </c>
       <c r="U40" t="n">
-        <v>1667.240599230347</v>
+        <v>1257.381005660696</v>
       </c>
       <c r="V40" t="n">
-        <v>1412.556111024461</v>
+        <v>1002.696517454809</v>
       </c>
       <c r="W40" t="n">
-        <v>1123.1389409875</v>
+        <v>713.2793474178487</v>
       </c>
       <c r="X40" t="n">
-        <v>1123.1389409875</v>
+        <v>485.2897965198314</v>
       </c>
       <c r="Y40" t="n">
-        <v>902.3463618439697</v>
+        <v>264.4972173763013</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D41" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F41" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H41" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I41" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J41" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K41" t="n">
-        <v>618.2595390972663</v>
+        <v>1034.340101969333</v>
       </c>
       <c r="L41" t="n">
-        <v>1482.778354750621</v>
+        <v>1898.858917622687</v>
       </c>
       <c r="M41" t="n">
-        <v>2461.32865758045</v>
+        <v>2432.390822294612</v>
       </c>
       <c r="N41" t="n">
-        <v>3441.080929807096</v>
+        <v>2979.169639353394</v>
       </c>
       <c r="O41" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P41" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q41" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R41" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S41" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T41" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V41" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X41" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y41" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="42">
@@ -7466,28 +7466,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G42" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H42" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I42" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J42" t="n">
         <v>189.2383039390118</v>
@@ -7523,7 +7523,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U42" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V42" t="n">
         <v>1808.657265216076</v>
@@ -7532,10 +7532,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X42" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y42" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="43">
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>481.6968904858347</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C43" t="n">
-        <v>481.6968904858347</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D43" t="n">
-        <v>390.3640755286979</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E43" t="n">
-        <v>242.4509819463048</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F43" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G43" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H43" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I43" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J43" t="n">
         <v>140.68366689533</v>
@@ -7593,28 +7593,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R43" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S43" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T43" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U43" t="n">
-        <v>1253.788099626699</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V43" t="n">
-        <v>999.1036114208126</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W43" t="n">
-        <v>709.6864413838521</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X43" t="n">
-        <v>481.6968904858347</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y43" t="n">
-        <v>481.6968904858347</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="44">
@@ -7636,49 +7636,49 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F44" t="n">
-        <v>850.2139837551624</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H44" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I44" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J44" t="n">
-        <v>284.4401654074196</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K44" t="n">
-        <v>618.2595390972656</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L44" t="n">
-        <v>1482.77835475062</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M44" t="n">
-        <v>2461.328657580448</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N44" t="n">
-        <v>3441.080929807094</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O44" t="n">
-        <v>4075.973927750059</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P44" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q44" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R44" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S44" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T44" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U44" t="n">
         <v>4208.252829604874</v>
@@ -7703,43 +7703,43 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G45" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I45" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390116</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193584</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320233</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M45" t="n">
-        <v>1241.476988454342</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N45" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O45" t="n">
         <v>2125.96131142685</v>
@@ -7760,7 +7760,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U45" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V45" t="n">
         <v>1808.657265216076</v>
@@ -7769,10 +7769,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X45" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y45" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>391.8664332433611</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C46" t="n">
-        <v>391.8664332433611</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D46" t="n">
-        <v>391.8664332433611</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E46" t="n">
-        <v>391.8664332433611</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F46" t="n">
-        <v>391.8664332433611</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G46" t="n">
-        <v>224.1635966180801</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H46" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I46" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J46" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K46" t="n">
-        <v>344.670849844206</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L46" t="n">
-        <v>661.230648292702</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M46" t="n">
         <v>1005.387693892251</v>
       </c>
       <c r="N46" t="n">
-        <v>1346.796070598115</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O46" t="n">
-        <v>1646.125669518528</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P46" t="n">
-        <v>1878.733169952188</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q46" t="n">
-        <v>1956.343466104702</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R46" t="n">
-        <v>1866.51300886223</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S46" t="n">
-        <v>1674.827124689056</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T46" t="n">
-        <v>1453.060509258582</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U46" t="n">
-        <v>1163.957642384226</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V46" t="n">
-        <v>909.273154178339</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W46" t="n">
-        <v>619.8559841413785</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X46" t="n">
-        <v>391.8664332433611</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y46" t="n">
-        <v>391.8664332433611</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
   </sheetData>
@@ -8072,13 +8072,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>274.4264991783515</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8236,7 +8236,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599043</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8461,7 +8461,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>449.5135334928316</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N8" t="n">
         <v>437.3469244119842</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747027</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8695,7 +8695,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>241.9338129178262</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8704,16 +8704,16 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>344.7025836476838</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8926,31 +8926,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>344.7025836476838</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>170.1140909277305</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9163,22 +9163,22 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>16.8005733590889</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>344.7025836476838</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>321.7987081714826</v>
@@ -9187,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9400,25 +9400,25 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>315.1679217109336</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -9637,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>344.7025836476853</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9874,31 +9874,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>288.0478149561031</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10111,31 +10111,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>344.7025836476844</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10354,7 +10354,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>449.5135334928325</v>
@@ -10363,16 +10363,16 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>133.2530576400246</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>272.8828616575881</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10591,16 +10591,16 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>344.7025836476828</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>29.61882225792135</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10822,31 +10822,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>219.3344627260154</v>
       </c>
       <c r="M38" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>133.2530576400255</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11059,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>251.1867816683973</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>133.2530576400255</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11296,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>133.2530576400293</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23415,25 +23415,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>105.0742887270133</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>96.35242040983809</v>
@@ -23472,19 +23472,19 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>118.02280878696</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23554,7 +23554,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>1.023181539494544e-12</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23655,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,19 +23703,19 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>16.14213605696631</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>83.32522828944164</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23892,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,25 +23937,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>16.14213605696617</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>210.1334920241535</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>177.3804010777516</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24135,19 +24135,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>19.32499753270154</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24366,25 +24366,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>92.67648855686335</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>16.14213605697111</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24600,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24615,13 +24615,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>113.7908987761692</v>
+        <v>129.865816138453</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>5.148983237310603</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,25 +24885,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>34.70948605375841</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25077,19 +25077,19 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>64.70498037788363</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>144.7550149143208</v>
@@ -25128,7 +25128,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>142.2354048423647</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25311,16 +25311,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>76.85336204559587</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>91.00410138658135</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25362,7 +25362,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25371,16 +25371,16 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>80.10276031300538</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,10 +25599,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>3.556976973656674</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25785,19 +25785,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>58.19598621064686</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>166.0258082590282</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>105.0742887270132</v>
       </c>
     </row>
     <row r="44">
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26037,13 +26037,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>113.7908987761701</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>105.0742887270134</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>897877.7408966769</v>
+        <v>897877.7408966768</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>897877.740896677</v>
+        <v>897877.7408966768</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>897877.740896677</v>
+        <v>897877.7408966769</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>897877.7408966769</v>
+        <v>897877.7408966768</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>897877.7408966769</v>
+        <v>897877.7408966768</v>
       </c>
     </row>
     <row r="10">
@@ -26313,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>533677.1504117843</v>
+        <v>533677.1504117844</v>
       </c>
       <c r="C2" t="n">
         <v>533677.1504117844</v>
       </c>
       <c r="D2" t="n">
-        <v>533677.1504117843</v>
+        <v>533677.1504117846</v>
       </c>
       <c r="E2" t="n">
         <v>516206.3229530781</v>
@@ -26331,31 +26331,31 @@
         <v>516206.3229530781</v>
       </c>
       <c r="H2" t="n">
-        <v>516206.3229530782</v>
+        <v>516206.3229530781</v>
       </c>
       <c r="I2" t="n">
+        <v>516206.3229530781</v>
+      </c>
+      <c r="J2" t="n">
+        <v>516206.3229530781</v>
+      </c>
+      <c r="K2" t="n">
+        <v>516206.3229530781</v>
+      </c>
+      <c r="L2" t="n">
+        <v>516206.3229530781</v>
+      </c>
+      <c r="M2" t="n">
+        <v>516206.322953078</v>
+      </c>
+      <c r="N2" t="n">
+        <v>516206.3229530781</v>
+      </c>
+      <c r="O2" t="n">
+        <v>516206.3229530781</v>
+      </c>
+      <c r="P2" t="n">
         <v>516206.3229530783</v>
-      </c>
-      <c r="J2" t="n">
-        <v>516206.3229530783</v>
-      </c>
-      <c r="K2" t="n">
-        <v>516206.3229530782</v>
-      </c>
-      <c r="L2" t="n">
-        <v>516206.3229530783</v>
-      </c>
-      <c r="M2" t="n">
-        <v>516206.3229530781</v>
-      </c>
-      <c r="N2" t="n">
-        <v>516206.3229530783</v>
-      </c>
-      <c r="O2" t="n">
-        <v>516206.3229530784</v>
-      </c>
-      <c r="P2" t="n">
-        <v>516206.3229530782</v>
       </c>
     </row>
     <row r="3">
@@ -26395,10 +26395,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1.62584001373034e-10</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>129642.3148389449</v>
+        <v>129642.3148389447</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,19 +26426,19 @@
         <v>201064.5059277315</v>
       </c>
       <c r="E4" t="n">
-        <v>25090.72367499381</v>
+        <v>25090.72367499375</v>
       </c>
       <c r="F4" t="n">
-        <v>25090.72367499382</v>
+        <v>25090.72367499375</v>
       </c>
       <c r="G4" t="n">
-        <v>25090.72367499381</v>
+        <v>25090.72367499379</v>
       </c>
       <c r="H4" t="n">
-        <v>25090.72367499384</v>
+        <v>25090.72367499375</v>
       </c>
       <c r="I4" t="n">
-        <v>25090.72367499383</v>
+        <v>25090.72367499374</v>
       </c>
       <c r="J4" t="n">
         <v>25090.72367499381</v>
@@ -26450,16 +26450,16 @@
         <v>25090.72367499381</v>
       </c>
       <c r="M4" t="n">
-        <v>25090.72367499382</v>
+        <v>25090.7236749938</v>
       </c>
       <c r="N4" t="n">
-        <v>25090.72367499382</v>
+        <v>25090.7236749938</v>
       </c>
       <c r="O4" t="n">
-        <v>25090.72367499382</v>
+        <v>25090.7236749938</v>
       </c>
       <c r="P4" t="n">
-        <v>25090.72367499387</v>
+        <v>25090.7236749938</v>
       </c>
     </row>
     <row r="5">
@@ -26472,19 +26472,19 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="F5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="G5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="H5" t="n">
         <v>96383.51825371364</v>
@@ -26496,19 +26496,19 @@
         <v>96383.51825371364</v>
       </c>
       <c r="K5" t="n">
+        <v>96383.51825371366</v>
+      </c>
+      <c r="L5" t="n">
+        <v>96383.51825371366</v>
+      </c>
+      <c r="M5" t="n">
         <v>96383.51825371364</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
         <v>96383.51825371364</v>
       </c>
-      <c r="M5" t="n">
-        <v>96383.51825371366</v>
-      </c>
-      <c r="N5" t="n">
-        <v>96383.51825371366</v>
-      </c>
       <c r="O5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="P5" t="n">
         <v>96383.51825371364</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-340214.3127939012</v>
+        <v>-340214.3127939011</v>
       </c>
       <c r="C6" t="n">
         <v>249753.5664206434</v>
       </c>
       <c r="D6" t="n">
-        <v>249753.5664206433</v>
+        <v>249753.5664206437</v>
       </c>
       <c r="E6" t="n">
-        <v>-332645.332969036</v>
+        <v>-333317.287871294</v>
       </c>
       <c r="F6" t="n">
-        <v>394732.0810243707</v>
+        <v>394060.1261221128</v>
       </c>
       <c r="G6" t="n">
-        <v>394732.0810243706</v>
+        <v>394060.1261221128</v>
       </c>
       <c r="H6" t="n">
-        <v>394732.0810243709</v>
+        <v>394060.1261221128</v>
       </c>
       <c r="I6" t="n">
-        <v>394732.0810243707</v>
+        <v>394060.1261221128</v>
       </c>
       <c r="J6" t="n">
-        <v>218308.8618317779</v>
+        <v>217636.9069295199</v>
       </c>
       <c r="K6" t="n">
-        <v>394732.0810243707</v>
+        <v>394060.1261221126</v>
       </c>
       <c r="L6" t="n">
-        <v>394732.0810243706</v>
+        <v>394060.1261221127</v>
       </c>
       <c r="M6" t="n">
-        <v>265089.7661854257</v>
+        <v>264417.8112831679</v>
       </c>
       <c r="N6" t="n">
-        <v>394732.0810243707</v>
+        <v>394060.1261221127</v>
       </c>
       <c r="O6" t="n">
-        <v>394732.0810243709</v>
+        <v>394060.1261221128</v>
       </c>
       <c r="P6" t="n">
-        <v>394732.0810243713</v>
+        <v>394060.1261221129</v>
       </c>
     </row>
   </sheetData>
@@ -26779,7 +26779,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="P3" t="n">
-        <v>1089.776700593297</v>
+        <v>1089.776700593298</v>
       </c>
     </row>
     <row r="4">
@@ -26792,10 +26792,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1194.51293060493</v>
@@ -26989,7 +26989,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>-8.291437776966332e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503748</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.225657850375</v>
+        <v>520.2256578503744</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503748</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>16.73665413220886</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -27429,25 +27429,25 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>6.747420460280892</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27539,19 +27539,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>107.5829646831822</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27593,13 +27593,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>157.4983735401874</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27615,19 +27615,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>5.078602610311123</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>393.2545171770619</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27678,7 +27678,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27782,7 +27782,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27794,7 +27794,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
         <v>45.19995918853699</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801578</v>
@@ -27830,19 +27830,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>215.8830646101812</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>63.3731647155137</v>
       </c>
     </row>
     <row r="8">
@@ -27855,7 +27855,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>218.8388043680911</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27918,10 +27918,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>98.95375469339439</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,22 +28010,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>120.1051426060686</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>111.6416864383013</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28073,7 +28073,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28386,7 +28386,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>-1.564980526122131e-12</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -28563,7 +28563,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>-8.617665311508712e-13</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28985,7 +28985,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>-5.190518744971736e-12</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -29231,7 +29231,7 @@
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>-5.190518744971736e-12</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
@@ -30039,7 +30039,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>-3.77869151724681e-13</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -30197,7 +30197,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>2.733694752047692e-12</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -31843,7 +31843,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L12" t="n">
         <v>508.9565619138796</v>
@@ -32083,7 +32083,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M15" t="n">
         <v>593.9283018233475</v>
@@ -32335,7 +32335,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I20" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32548,40 +32548,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32621,13 +32621,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32636,16 +32636,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32654,16 +32654,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I23" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32785,40 +32785,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138801</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O24" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32858,13 +32858,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32873,16 +32873,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32891,16 +32891,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I26" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J26" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T26" t="n">
         <v>19.1778794245112</v>
@@ -33022,40 +33022,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O27" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33095,13 +33095,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H28" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
@@ -33110,16 +33110,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M28" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P28" t="n">
         <v>237.6785118802169</v>
@@ -33128,16 +33128,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I29" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J29" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T29" t="n">
         <v>19.1778794245112</v>
@@ -33259,40 +33259,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837931</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O30" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33332,13 +33332,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H31" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
@@ -33347,16 +33347,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M31" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P31" t="n">
         <v>237.6785118802169</v>
@@ -33365,16 +33365,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33520,7 +33520,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
@@ -33757,7 +33757,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
@@ -34219,7 +34219,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N42" t="n">
         <v>609.6478166837925</v>
@@ -34231,7 +34231,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681595</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844664</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I44" t="n">
-        <v>168.8989597974798</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
-        <v>371.8329054953986</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003806</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623187</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574988</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095017</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099053</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746408</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781686</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563567</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806942</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T44" t="n">
-        <v>19.17787942451119</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345275</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502564</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H45" t="n">
-        <v>22.63856881798529</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752251</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353154</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138792</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
-        <v>593.92830182335</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837919</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970245</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002923</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987484</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
-        <v>145.536594090554</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238312</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T45" t="n">
-        <v>9.44815837589849</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1542136840462214</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430536</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
-        <v>17.47215759311878</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742014</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J46" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702022</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.1673469098818</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
-        <v>308.049502431643</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883113</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023085999</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P46" t="n">
-        <v>237.6785118802167</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q46" t="n">
-        <v>164.5562817895879</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712208</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553033</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112289</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34792,13 +34792,13 @@
         <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
-        <v>325.1459203262118</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34956,7 +34956,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898686</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35181,7 +35181,7 @@
         <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060957</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
         <v>478.8956552492237</v>
@@ -35272,7 +35272,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.3752747153553</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35415,7 +35415,7 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>697.5239273101583</v>
       </c>
       <c r="M11" t="n">
         <v>538.9211158302268</v>
@@ -35424,16 +35424,16 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>852.7555845359029</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P11" t="n">
         <v>720.5606943908545</v>
       </c>
       <c r="Q11" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35491,7 +35491,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L12" t="n">
         <v>370.4021821340054</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>800.2926980400159</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P14" t="n">
-        <v>720.5606943908545</v>
+        <v>568.8760771471024</v>
       </c>
       <c r="Q14" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35731,7 +35731,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340055</v>
       </c>
       <c r="M15" t="n">
         <v>451.7942679013292</v>
@@ -35883,22 +35883,22 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>472.3906877514211</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O17" t="n">
-        <v>852.7555845359029</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
         <v>720.5606943908545</v>
@@ -35907,7 +35907,7 @@
         <v>463.1092954636242</v>
       </c>
       <c r="R17" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35983,7 +35983,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687125</v>
+        <v>324.040058608738</v>
       </c>
       <c r="K20" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>873.2513289427824</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302265</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O20" t="n">
-        <v>888.8531821509644</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P20" t="n">
-        <v>713.9299079303053</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443144</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36293,13 +36293,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K23" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923319</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302265</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O23" t="n">
-        <v>852.7555845359043</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P23" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.402182134006</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L25" t="n">
         <v>319.7573721701981</v>
@@ -36527,16 +36527,16 @@
         <v>347.6333793934838</v>
       </c>
       <c r="N25" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675349</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P25" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
-        <v>625.2391015115035</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923319</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302265</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O26" t="n">
-        <v>888.8531821509644</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P26" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q26" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R26" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P27" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127279</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K28" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L28" t="n">
         <v>319.7573721701981</v>
@@ -36767,13 +36767,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O28" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P28" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q28" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923319</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302265</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O29" t="n">
-        <v>852.7555845359034</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P29" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q29" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R29" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004598</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P30" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K31" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L31" t="n">
         <v>319.7573721701981</v>
@@ -37004,13 +37004,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O31" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P31" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q31" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37074,7 +37074,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M32" t="n">
         <v>988.4346493230593</v>
@@ -37083,16 +37083,16 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O32" t="n">
-        <v>641.3060585282437</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193719</v>
+        <v>671.6448478769599</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37168,7 +37168,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37311,16 +37311,16 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923322</v>
+        <v>800.292698040015</v>
       </c>
       <c r="M35" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
-        <v>581.9206576708328</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P35" t="n">
         <v>720.5606943908545</v>
@@ -37329,7 +37329,7 @@
         <v>463.1092954636242</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37405,7 +37405,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K38" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L38" t="n">
-        <v>873.2513289427826</v>
+        <v>674.9245771183475</v>
       </c>
       <c r="M38" t="n">
         <v>988.4346493230593</v>
       </c>
       <c r="N38" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>641.3060585282446</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554005</v>
+        <v>588.3780682237978</v>
       </c>
       <c r="L41" t="n">
         <v>873.2513289427826</v>
       </c>
       <c r="M41" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>641.3060585282446</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37867,7 +37867,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N42" t="n">
         <v>478.3061046004592</v>
@@ -37879,7 +37879,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687123</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L44" t="n">
-        <v>873.2513289427819</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
-        <v>988.4346493230586</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
-        <v>989.6487598248949</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>641.3060585282478</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193713</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037191</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222455</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597693</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609564</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.402182134005</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013316</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004586</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525801</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859621</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127269</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.57841661306611</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K46" t="n">
-        <v>206.0476595443194</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L46" t="n">
-        <v>319.7573721701979</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M46" t="n">
-        <v>347.6333793934836</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N46" t="n">
-        <v>344.8569461675398</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O46" t="n">
-        <v>302.3531302226395</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P46" t="n">
-        <v>234.9570711451102</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.39423853789351</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_7_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_7_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1738642.83043489</v>
+        <v>1742048.321559339</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836238</v>
+        <v>6654055.582836236</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.8827095106</v>
+        <v>806345.8827095098</v>
       </c>
     </row>
     <row r="9">
@@ -664,19 +664,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>74.25282357334704</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>167.6682923486906</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -718,7 +718,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -819,19 +819,19 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>59.66385641544559</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -867,13 +867,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>169.0167291702126</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -907,16 +907,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>13.62152856464951</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>96.36163317610313</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1053,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1116,13 +1116,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>155.2114886365811</v>
+        <v>171.7498680634317</v>
       </c>
     </row>
     <row r="8">
@@ -1141,10 +1141,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
@@ -1180,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1192,13 +1192,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>270.7773459850746</v>
+        <v>255.7771786356286</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>59.72683757586869</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1356,10 +1356,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>101.780687729549</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1381,7 +1381,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>410.9217256534534</v>
@@ -1390,7 +1390,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292547</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1536,16 +1536,16 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465744</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1584,19 +1584,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>14.20188851094988</v>
       </c>
       <c r="X13" t="n">
-        <v>107.6868466020772</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1618,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G14" t="n">
         <v>410.9217256534534</v>
@@ -1666,7 +1666,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1767,7 +1767,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1779,13 +1779,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>67.41386939711252</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>203.4068132192029</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634814</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1900,7 +1900,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9951719589016</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881758</v>
+        <v>109.187761788176</v>
       </c>
       <c r="T20" t="n">
         <v>203.9179701396201</v>
@@ -2238,19 +2238,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>126.0960504902297</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>166.0258082590282</v>
@@ -2295,7 +2295,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>104.0438938896184</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2304,10 +2304,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2371,7 +2371,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
@@ -2414,10 +2414,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247655</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>173.6268892744708</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
         <v>219.5489492761692</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>202.4425172951282</v>
       </c>
     </row>
     <row r="26">
@@ -2575,7 +2575,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881769</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U26" t="n">
         <v>250.995171958902</v>
@@ -2651,10 +2651,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2712,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>74.75769145492315</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>36.15999212057524</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S28" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
         <v>286.2118382056129</v>
@@ -2812,7 +2812,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2845,7 +2845,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U29" t="n">
         <v>250.995171958902</v>
@@ -2888,10 +2888,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2949,22 +2949,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>134.4415385849321</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>251.5023521518545</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3049,7 +3049,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3082,7 +3082,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U32" t="n">
         <v>250.995171958902</v>
@@ -3125,10 +3125,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3186,25 +3186,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>81.72898226868554</v>
+        <v>123.0955949008254</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3286,7 +3286,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292547</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3362,10 +3362,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>102.9786181363414</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3441,10 +3441,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3477,19 +3477,19 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>157.7822070347165</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3523,7 +3523,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3599,10 +3599,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3663,7 +3663,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S40" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>215.9919723025125</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
         <v>286.2118382056129</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>127.3165365479897</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3793,7 +3793,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U41" t="n">
         <v>250.995171958902</v>
@@ -3836,10 +3836,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3900,7 +3900,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.2118382056129</v>
@@ -3960,13 +3960,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>156.6571821981373</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>113.5103646250816</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4030,7 +4030,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U44" t="n">
         <v>250.995171958902</v>
@@ -4073,10 +4073,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>189.7690253314419</v>
@@ -4191,7 +4191,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>181.1375494785995</v>
+        <v>270.0697021486461</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1251.855211652197</v>
+        <v>1576.102522773261</v>
       </c>
       <c r="C2" t="n">
-        <v>882.8926947117852</v>
+        <v>1207.14000583285</v>
       </c>
       <c r="D2" t="n">
-        <v>882.8926947117852</v>
+        <v>848.8743072260993</v>
       </c>
       <c r="E2" t="n">
-        <v>882.8926947117852</v>
+        <v>463.086054627855</v>
       </c>
       <c r="F2" t="n">
-        <v>471.9067899221776</v>
+        <v>456.1405538786516</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
         <v>53.94298182036445</v>
@@ -4333,10 +4333,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4357,25 +4357,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2527.787179554899</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T2" t="n">
-        <v>2309.152512526961</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U2" t="n">
-        <v>2309.152512526961</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="V2" t="n">
-        <v>1978.089625183391</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="W2" t="n">
-        <v>1625.320969913277</v>
+        <v>1949.568281034341</v>
       </c>
       <c r="X2" t="n">
-        <v>1251.855211652197</v>
+        <v>1576.102522773261</v>
       </c>
       <c r="Y2" t="n">
-        <v>1251.855211652197</v>
+        <v>1576.102522773261</v>
       </c>
     </row>
     <row r="3">
@@ -4409,25 +4409,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>667.8624625746712</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>517.7458231623355</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4515,25 +4515,25 @@
         <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>343.1165921657965</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2079.343073798764</v>
+        <v>1689.203741822952</v>
       </c>
       <c r="C5" t="n">
-        <v>1710.380556858352</v>
+        <v>1320.241224882541</v>
       </c>
       <c r="D5" t="n">
-        <v>1352.114858251602</v>
+        <v>961.9755262757901</v>
       </c>
       <c r="E5" t="n">
-        <v>966.3266056533573</v>
+        <v>576.1872736775458</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>569.2417729283424</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>151.2779648265292</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>151.2779648265292</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4585,7 +4585,7 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
         <v>2697.149091018222</v>
@@ -4612,7 +4612,7 @@
         <v>2465.942913862886</v>
       </c>
       <c r="Y5" t="n">
-        <v>2465.942913862886</v>
+        <v>2075.803581887074</v>
       </c>
     </row>
     <row r="6">
@@ -4701,10 +4701,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>372.9958041606071</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D7" t="n">
         <v>53.94298182036445</v>
@@ -4764,13 +4764,13 @@
         <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>438.7118141694738</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>210.7222632714565</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>554.6442689908469</v>
       </c>
     </row>
     <row r="8">
@@ -4780,16 +4780,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1591.868758816787</v>
+        <v>802.0401021781393</v>
       </c>
       <c r="C8" t="n">
-        <v>1222.906241876376</v>
+        <v>433.0775852377275</v>
       </c>
       <c r="D8" t="n">
-        <v>864.6405432696254</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F8" t="n">
         <v>67.86638588177355</v>
@@ -4807,10 +4807,10 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="V8" t="n">
-        <v>2642.120401548716</v>
+        <v>2189.908715988822</v>
       </c>
       <c r="W8" t="n">
-        <v>2642.120401548716</v>
+        <v>1837.140060718708</v>
       </c>
       <c r="X8" t="n">
-        <v>2368.607930856721</v>
+        <v>1578.779274218073</v>
       </c>
       <c r="Y8" t="n">
-        <v>1978.468598880909</v>
+        <v>1188.639942242261</v>
       </c>
     </row>
     <row r="9">
@@ -4938,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>667.7988452409105</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C10" t="n">
-        <v>498.8626623130036</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
         <v>53.94298182036445</v>
@@ -4968,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064344</v>
+        <v>625.3202087220412</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064344</v>
+        <v>404.5276295785111</v>
       </c>
     </row>
     <row r="11">
@@ -5017,28 +5017,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D11" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F11" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551615</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001585</v>
+        <v>435.141533600158</v>
       </c>
       <c r="H11" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089252</v>
       </c>
       <c r="I11" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J11" t="n">
         <v>451.8458144277729</v>
@@ -5047,46 +5047,46 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L11" t="n">
-        <v>1797.117834600129</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M11" t="n">
-        <v>2330.649739272054</v>
+        <v>2432.390822294612</v>
       </c>
       <c r="N11" t="n">
-        <v>2877.428556330836</v>
+        <v>2979.169639353394</v>
       </c>
       <c r="O11" t="n">
-        <v>3757.393206660291</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P11" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q11" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R11" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S11" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T11" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V11" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X11" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y11" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="12">
@@ -5096,34 +5096,34 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I12" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J12" t="n">
         <v>189.2383039390118</v>
       </c>
       <c r="K12" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L12" t="n">
         <v>794.2006632320243</v>
@@ -5138,22 +5138,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P12" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q12" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R12" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S12" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T12" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V12" t="n">
         <v>1808.657265216076</v>
@@ -5162,10 +5162,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X12" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y12" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="13">
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>873.2202818640333</v>
+        <v>264.4972173763013</v>
       </c>
       <c r="C13" t="n">
-        <v>704.2840989361264</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D13" t="n">
-        <v>704.2840989361264</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E13" t="n">
-        <v>556.371005353728</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F13" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G13" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H13" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I13" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J13" t="n">
         <v>140.68366689533</v>
@@ -5232,19 +5232,19 @@
         <v>1453.060509258584</v>
       </c>
       <c r="U13" t="n">
-        <v>1453.060509258584</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V13" t="n">
-        <v>1453.060509258584</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W13" t="n">
-        <v>1163.643339221624</v>
+        <v>894.9278122480885</v>
       </c>
       <c r="X13" t="n">
-        <v>1054.868746694273</v>
+        <v>666.9382613500711</v>
       </c>
       <c r="Y13" t="n">
-        <v>1054.868746694273</v>
+        <v>446.145682206541</v>
       </c>
     </row>
     <row r="14">
@@ -5254,13 +5254,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C14" t="n">
         <v>2005.253839749764</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E14" t="n">
         <v>1261.199888544769</v>
@@ -5275,55 +5275,55 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I14" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J14" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K14" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L14" t="n">
-        <v>1069.293752345675</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M14" t="n">
-        <v>2047.844055175504</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N14" t="n">
-        <v>3027.596327402151</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O14" t="n">
-        <v>3907.560977731605</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P14" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q14" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R14" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S14" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T14" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V14" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W14" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X14" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y14" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="15">
@@ -5333,28 +5333,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G15" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I15" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J15" t="n">
         <v>189.2383039390118</v>
@@ -5363,7 +5363,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
@@ -5390,7 +5390,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U15" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V15" t="n">
         <v>1808.657265216076</v>
@@ -5399,10 +5399,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X15" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y15" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="16">
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>95.56103444839442</v>
+        <v>500.2948715744233</v>
       </c>
       <c r="C16" t="n">
-        <v>95.56103444839442</v>
+        <v>331.3586886465164</v>
       </c>
       <c r="D16" t="n">
-        <v>95.56103444839442</v>
+        <v>331.3586886465164</v>
       </c>
       <c r="E16" t="n">
-        <v>95.56103444839442</v>
+        <v>331.3586886465164</v>
       </c>
       <c r="F16" t="n">
-        <v>95.56103444839442</v>
+        <v>331.3586886465164</v>
       </c>
       <c r="G16" t="n">
-        <v>95.56103444839442</v>
+        <v>163.6558520212353</v>
       </c>
       <c r="H16" t="n">
-        <v>95.56103444839442</v>
+        <v>163.6558520212353</v>
       </c>
       <c r="I16" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J16" t="n">
         <v>140.68366689533</v>
@@ -5460,28 +5460,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S16" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T16" t="n">
-        <v>1559.196154437386</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="U16" t="n">
-        <v>1270.093287563029</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="V16" t="n">
-        <v>1015.408799357142</v>
+        <v>1420.142636483171</v>
       </c>
       <c r="W16" t="n">
-        <v>725.9916293201816</v>
+        <v>1130.72546644621</v>
       </c>
       <c r="X16" t="n">
-        <v>498.0020784221642</v>
+        <v>902.7359155481931</v>
       </c>
       <c r="Y16" t="n">
-        <v>277.2094992786341</v>
+        <v>681.943336404663</v>
       </c>
     </row>
     <row r="17">
@@ -5494,73 +5494,73 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E17" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F17" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001578</v>
       </c>
       <c r="H17" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I17" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J17" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K17" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L17" t="n">
-        <v>1085.926319971173</v>
+        <v>1898.858917622687</v>
       </c>
       <c r="M17" t="n">
-        <v>2064.476622801002</v>
+        <v>2432.390822294612</v>
       </c>
       <c r="N17" t="n">
-        <v>3044.228895027648</v>
+        <v>2979.169639353394</v>
       </c>
       <c r="O17" t="n">
-        <v>3547.201365906985</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P17" t="n">
-        <v>4260.556453353931</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q17" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R17" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S17" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="18">
@@ -5570,28 +5570,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G18" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I18" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J18" t="n">
         <v>189.2383039390118</v>
@@ -5627,7 +5627,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V18" t="n">
         <v>1808.657265216076</v>
@@ -5636,10 +5636,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="19">
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C19" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D19" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E19" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F19" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G19" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H19" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I19" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J19" t="n">
         <v>140.68366689533</v>
@@ -5728,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
         <v>2005.253839749764</v>
@@ -5737,67 +5737,67 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551618</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G20" t="n">
         <v>435.1415336001585</v>
       </c>
       <c r="H20" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I20" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J20" t="n">
-        <v>416.3606924710451</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K20" t="n">
-        <v>750.1800661608916</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L20" t="n">
-        <v>1614.698881814246</v>
+        <v>1586.925993846823</v>
       </c>
       <c r="M20" t="n">
-        <v>2593.249184644075</v>
+        <v>2120.457898518747</v>
       </c>
       <c r="N20" t="n">
-        <v>3573.001456870722</v>
+        <v>2667.23671557753</v>
       </c>
       <c r="O20" t="n">
-        <v>4075.973927750058</v>
+        <v>3547.201365906984</v>
       </c>
       <c r="P20" t="n">
-        <v>4470.748294107237</v>
+        <v>4260.55645335393</v>
       </c>
       <c r="Q20" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R20" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U20" t="n">
         <v>4208.252829604874</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W20" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="21">
@@ -5807,28 +5807,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G21" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I21" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J21" t="n">
         <v>189.2383039390118</v>
@@ -5864,7 +5864,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U21" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V21" t="n">
         <v>1808.657265216076</v>
@@ -5873,10 +5873,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>709.6864413838471</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="C22" t="n">
-        <v>540.7502584559402</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D22" t="n">
-        <v>390.6336190436044</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E22" t="n">
-        <v>390.6336190436044</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F22" t="n">
         <v>263.2638710736754</v>
       </c>
       <c r="G22" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H22" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I22" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J22" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K22" t="n">
-        <v>344.6708498442013</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L22" t="n">
-        <v>661.2306482926974</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M22" t="n">
-        <v>1005.387693892246</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N22" t="n">
-        <v>1346.796070598111</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
-        <v>1646.125669518525</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P22" t="n">
-        <v>1878.733169952184</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q22" t="n">
-        <v>1956.343466104699</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>1956.343466104699</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S22" t="n">
-        <v>1764.657581931525</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T22" t="n">
-        <v>1542.890966501051</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U22" t="n">
-        <v>1253.788099626694</v>
+        <v>1437.79612418831</v>
       </c>
       <c r="V22" t="n">
-        <v>999.1036114208076</v>
+        <v>1183.111635982423</v>
       </c>
       <c r="W22" t="n">
-        <v>709.6864413838471</v>
+        <v>893.6944659454626</v>
       </c>
       <c r="X22" t="n">
-        <v>709.6864413838471</v>
+        <v>665.7049150474453</v>
       </c>
       <c r="Y22" t="n">
-        <v>709.6864413838471</v>
+        <v>444.9123359039152</v>
       </c>
     </row>
     <row r="23">
@@ -5986,31 +5986,31 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I23" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J23" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K23" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L23" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M23" t="n">
-        <v>2461.32865758045</v>
+        <v>2091.135264483405</v>
       </c>
       <c r="N23" t="n">
-        <v>3441.080929807096</v>
+        <v>2637.914081542187</v>
       </c>
       <c r="O23" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P23" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q23" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R23" t="n">
         <v>4778.05172241972</v>
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973187</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161933</v>
+        <v>796.1397432161917</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549405</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494866</v>
+        <v>487.967878549485</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763717</v>
+        <v>341.43332057637</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089899</v>
+        <v>205.0702204089881</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468556</v>
       </c>
       <c r="I24" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J24" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320249</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M24" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N24" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O24" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q24" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R24" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S24" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T24" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313402</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V24" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216075</v>
       </c>
       <c r="W24" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487873</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y24" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="25">
@@ -6123,34 +6123,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C25" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D25" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E25" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F25" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G25" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H25" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I25" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J25" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K25" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L25" t="n">
         <v>661.2306482927024</v>
@@ -6159,37 +6159,37 @@
         <v>1005.387693892251</v>
       </c>
       <c r="N25" t="n">
-        <v>1346.796070598111</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O25" t="n">
-        <v>1646.125669518525</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P25" t="n">
-        <v>1878.733169952184</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q25" t="n">
-        <v>1956.343466104699</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R25" t="n">
-        <v>1956.343466104699</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S25" t="n">
-        <v>1780.96276986786</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T25" t="n">
-        <v>1559.196154437386</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U25" t="n">
-        <v>1270.093287563029</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V25" t="n">
-        <v>1015.408799357142</v>
+        <v>999.1036114208122</v>
       </c>
       <c r="W25" t="n">
-        <v>725.9916293201816</v>
+        <v>709.6864413838516</v>
       </c>
       <c r="X25" t="n">
-        <v>498.0020784221642</v>
+        <v>481.6968904858343</v>
       </c>
       <c r="Y25" t="n">
         <v>277.2094992786341</v>
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C26" t="n">
         <v>2005.253839749764</v>
@@ -6211,46 +6211,46 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551618</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H26" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I26" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K26" t="n">
-        <v>618.2595390972663</v>
+        <v>785.6651881176192</v>
       </c>
       <c r="L26" t="n">
-        <v>1482.778354750621</v>
+        <v>1650.184003770974</v>
       </c>
       <c r="M26" t="n">
-        <v>2461.32865758045</v>
+        <v>2628.734306600802</v>
       </c>
       <c r="N26" t="n">
-        <v>3441.080929807096</v>
+        <v>3297.750360443163</v>
       </c>
       <c r="O26" t="n">
-        <v>4075.973927750058</v>
+        <v>3800.7228313225</v>
       </c>
       <c r="P26" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q26" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R26" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S26" t="n">
         <v>4667.761053946815</v>
@@ -6262,16 +6262,16 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W26" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="27">
@@ -6281,37 +6281,37 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161925</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I27" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193586</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320239</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
@@ -6323,16 +6323,16 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P27" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q27" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R27" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S27" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T27" t="n">
         <v>2271.877220313403</v>
@@ -6360,34 +6360,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>301.0224619425389</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C28" t="n">
-        <v>132.086279014632</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D28" t="n">
-        <v>132.086279014632</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E28" t="n">
-        <v>132.086279014632</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F28" t="n">
-        <v>132.086279014632</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G28" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H28" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I28" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J28" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K28" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L28" t="n">
         <v>661.2306482927024</v>
@@ -6399,37 +6399,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O28" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P28" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q28" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R28" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S28" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T28" t="n">
-        <v>1764.65758193153</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U28" t="n">
-        <v>1475.554715057174</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V28" t="n">
-        <v>1220.870226851287</v>
+        <v>909.27315417834</v>
       </c>
       <c r="W28" t="n">
-        <v>931.4530568143261</v>
+        <v>619.8559841413794</v>
       </c>
       <c r="X28" t="n">
-        <v>703.4635059163088</v>
+        <v>391.8664332433621</v>
       </c>
       <c r="Y28" t="n">
-        <v>482.6709267727787</v>
+        <v>171.0738540998319</v>
       </c>
     </row>
     <row r="29">
@@ -6463,28 +6463,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K29" t="n">
-        <v>618.2595390972663</v>
+        <v>785.6651881176192</v>
       </c>
       <c r="L29" t="n">
-        <v>1482.778354750621</v>
+        <v>1650.184003770974</v>
       </c>
       <c r="M29" t="n">
-        <v>2461.32865758045</v>
+        <v>2628.734306600802</v>
       </c>
       <c r="N29" t="n">
-        <v>3441.080929807096</v>
+        <v>3175.513123659584</v>
       </c>
       <c r="O29" t="n">
-        <v>4075.973927750058</v>
+        <v>3800.7228313225</v>
       </c>
       <c r="P29" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q29" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R29" t="n">
         <v>4778.051722419721</v>
@@ -6533,7 +6533,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H30" t="n">
         <v>114.5683260468565</v>
@@ -6542,25 +6542,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N30" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O30" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P30" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q30" t="n">
         <v>2594.102460549552</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>709.4168978689405</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="C31" t="n">
-        <v>540.4807149410336</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D31" t="n">
-        <v>390.3640755286979</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E31" t="n">
-        <v>242.4509819463048</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F31" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G31" t="n">
         <v>95.56103444839442</v>
@@ -6624,7 +6624,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K31" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L31" t="n">
         <v>661.2306482927024</v>
@@ -6636,37 +6636,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O31" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P31" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q31" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R31" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S31" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T31" t="n">
-        <v>1956.343466104704</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U31" t="n">
-        <v>1702.300686153336</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V31" t="n">
-        <v>1447.616197947449</v>
+        <v>909.27315417834</v>
       </c>
       <c r="W31" t="n">
-        <v>1158.199027910488</v>
+        <v>619.8559841413794</v>
       </c>
       <c r="X31" t="n">
-        <v>930.2094770124706</v>
+        <v>619.8559841413794</v>
       </c>
       <c r="Y31" t="n">
-        <v>709.4168978689405</v>
+        <v>399.0634049978493</v>
       </c>
     </row>
     <row r="32">
@@ -6679,52 +6679,52 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551613</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H32" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I32" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J32" t="n">
         <v>284.4401654074198</v>
       </c>
       <c r="K32" t="n">
-        <v>618.2595390972663</v>
+        <v>939.1634975427191</v>
       </c>
       <c r="L32" t="n">
-        <v>1069.293752345675</v>
+        <v>1390.197710791128</v>
       </c>
       <c r="M32" t="n">
-        <v>2047.844055175504</v>
+        <v>1923.729615463052</v>
       </c>
       <c r="N32" t="n">
-        <v>3027.596327402151</v>
+        <v>2602.177459903276</v>
       </c>
       <c r="O32" t="n">
-        <v>3530.568798281487</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P32" t="n">
-        <v>4195.497197679678</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q32" t="n">
-        <v>4653.975400188666</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R32" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S32" t="n">
         <v>4667.761053946815</v>
@@ -6733,19 +6733,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="33">
@@ -6770,31 +6770,31 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G33" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H33" t="n">
         <v>114.5683260468565</v>
       </c>
       <c r="I33" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N33" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O33" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P33" t="n">
         <v>2436.460902902953</v>
@@ -6834,34 +6834,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>492.7083461157126</v>
+        <v>681.9433364046623</v>
       </c>
       <c r="C34" t="n">
-        <v>492.7083461157126</v>
+        <v>513.0071534767554</v>
       </c>
       <c r="D34" t="n">
-        <v>492.7083461157126</v>
+        <v>513.0071534767554</v>
       </c>
       <c r="E34" t="n">
-        <v>410.1538185715858</v>
+        <v>388.668168728447</v>
       </c>
       <c r="F34" t="n">
-        <v>263.2638710736754</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="G34" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H34" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I34" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J34" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K34" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L34" t="n">
         <v>661.2306482927024</v>
@@ -6873,37 +6873,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O34" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P34" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q34" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R34" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S34" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T34" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="U34" t="n">
-        <v>1667.240599230347</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="V34" t="n">
-        <v>1412.556111024461</v>
+        <v>1420.14263648317</v>
       </c>
       <c r="W34" t="n">
-        <v>1123.1389409875</v>
+        <v>1130.72546644621</v>
       </c>
       <c r="X34" t="n">
-        <v>895.1493900894825</v>
+        <v>902.7359155481925</v>
       </c>
       <c r="Y34" t="n">
-        <v>674.3568109459524</v>
+        <v>681.9433364046623</v>
       </c>
     </row>
     <row r="35">
@@ -6913,49 +6913,49 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C35" t="n">
         <v>2005.253839749764</v>
       </c>
       <c r="D35" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E35" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F35" t="n">
-        <v>850.2139837551615</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G35" t="n">
-        <v>435.141533600158</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H35" t="n">
-        <v>137.5579332089252</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I35" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J35" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K35" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972662</v>
       </c>
       <c r="L35" t="n">
-        <v>1898.858917622687</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M35" t="n">
-        <v>2432.390822294612</v>
+        <v>2461.328657580449</v>
       </c>
       <c r="N35" t="n">
-        <v>2979.169639353394</v>
+        <v>3441.080929807095</v>
       </c>
       <c r="O35" t="n">
-        <v>3482.142110232731</v>
+        <v>4010.914672075805</v>
       </c>
       <c r="P35" t="n">
-        <v>4195.497197679677</v>
+        <v>4405.689038432983</v>
       </c>
       <c r="Q35" t="n">
         <v>4653.975400188665</v>
@@ -6973,16 +6973,16 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V35" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W35" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X35" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y35" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="36">
@@ -6992,49 +6992,49 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G36" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I36" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J36" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K36" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L36" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M36" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N36" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O36" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P36" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q36" t="n">
         <v>2594.102460549552</v>
@@ -7049,7 +7049,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U36" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V36" t="n">
         <v>1808.657265216076</v>
@@ -7058,10 +7058,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X36" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y36" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="37">
@@ -7071,34 +7071,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1120.662598458018</v>
+        <v>877.1197344942216</v>
       </c>
       <c r="C37" t="n">
-        <v>951.7264155301116</v>
+        <v>708.1835515663147</v>
       </c>
       <c r="D37" t="n">
-        <v>801.6097761177758</v>
+        <v>558.0669121539789</v>
       </c>
       <c r="E37" t="n">
-        <v>653.6966825353827</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="F37" t="n">
-        <v>506.8067350374723</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G37" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H37" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I37" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J37" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K37" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L37" t="n">
         <v>661.2306482927024</v>
@@ -7110,37 +7110,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O37" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P37" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q37" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R37" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S37" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="T37" t="n">
-        <v>1734.57685067423</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="U37" t="n">
-        <v>1445.473983799873</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="V37" t="n">
-        <v>1445.473983799873</v>
+        <v>1796.967499402969</v>
       </c>
       <c r="W37" t="n">
-        <v>1445.473983799873</v>
+        <v>1507.550329366009</v>
       </c>
       <c r="X37" t="n">
-        <v>1445.473983799873</v>
+        <v>1279.560778467991</v>
       </c>
       <c r="Y37" t="n">
-        <v>1224.681404656343</v>
+        <v>1058.768199324461</v>
       </c>
     </row>
     <row r="38">
@@ -7150,49 +7150,49 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D38" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E38" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F38" t="n">
-        <v>850.2139837551617</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H38" t="n">
-        <v>137.5579332089255</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I38" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J38" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K38" t="n">
-        <v>785.6651881176194</v>
+        <v>618.2595390972662</v>
       </c>
       <c r="L38" t="n">
-        <v>1453.840519464783</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M38" t="n">
-        <v>2432.390822294612</v>
+        <v>2461.328657580449</v>
       </c>
       <c r="N38" t="n">
-        <v>2979.169639353394</v>
+        <v>3441.080929807095</v>
       </c>
       <c r="O38" t="n">
-        <v>3482.142110232731</v>
+        <v>4010.914672075805</v>
       </c>
       <c r="P38" t="n">
-        <v>4195.497197679677</v>
+        <v>4405.689038432983</v>
       </c>
       <c r="Q38" t="n">
         <v>4653.975400188665</v>
@@ -7207,19 +7207,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V38" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X38" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y38" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="39">
@@ -7229,49 +7229,49 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G39" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H39" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I39" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M39" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N39" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O39" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P39" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q39" t="n">
         <v>2594.102460549552</v>
@@ -7286,7 +7286,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U39" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V39" t="n">
         <v>1808.657265216076</v>
@@ -7295,10 +7295,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X39" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y39" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="40">
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>264.4972173763013</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="C40" t="n">
-        <v>95.56103444839441</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D40" t="n">
-        <v>95.56103444839441</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E40" t="n">
-        <v>95.56103444839441</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F40" t="n">
-        <v>95.56103444839441</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G40" t="n">
         <v>95.56103444839441</v>
@@ -7332,10 +7332,10 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J40" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K40" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L40" t="n">
         <v>661.2306482927024</v>
@@ -7347,37 +7347,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O40" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P40" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q40" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R40" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S40" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T40" t="n">
-        <v>1546.483872535053</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U40" t="n">
-        <v>1257.381005660696</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V40" t="n">
-        <v>1002.696517454809</v>
+        <v>909.27315417834</v>
       </c>
       <c r="W40" t="n">
-        <v>713.2793474178487</v>
+        <v>619.8559841413794</v>
       </c>
       <c r="X40" t="n">
-        <v>485.2897965198314</v>
+        <v>391.8664332433621</v>
       </c>
       <c r="Y40" t="n">
-        <v>264.4972173763013</v>
+        <v>263.2638710736754</v>
       </c>
     </row>
     <row r="41">
@@ -7390,46 +7390,46 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F41" t="n">
-        <v>850.2139837551618</v>
+        <v>850.2139837551617</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H41" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089255</v>
       </c>
       <c r="I41" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J41" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K41" t="n">
-        <v>1034.340101969333</v>
+        <v>618.2595390972662</v>
       </c>
       <c r="L41" t="n">
-        <v>1898.858917622687</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M41" t="n">
-        <v>2432.390822294612</v>
+        <v>2461.328657580449</v>
       </c>
       <c r="N41" t="n">
-        <v>2979.169639353394</v>
+        <v>3441.080929807095</v>
       </c>
       <c r="O41" t="n">
-        <v>3482.142110232731</v>
+        <v>4010.914672075805</v>
       </c>
       <c r="P41" t="n">
-        <v>4195.497197679677</v>
+        <v>4405.689038432983</v>
       </c>
       <c r="Q41" t="n">
         <v>4653.975400188665</v>
@@ -7444,19 +7444,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V41" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X41" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y41" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="42">
@@ -7466,49 +7466,49 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G42" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H42" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I42" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J42" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M42" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N42" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O42" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P42" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q42" t="n">
         <v>2594.102460549552</v>
@@ -7523,7 +7523,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U42" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V42" t="n">
         <v>1808.657265216076</v>
@@ -7532,10 +7532,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X42" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y42" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="43">
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>95.56103444839441</v>
+        <v>432.2000540015823</v>
       </c>
       <c r="C43" t="n">
-        <v>95.56103444839441</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D43" t="n">
-        <v>95.56103444839441</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E43" t="n">
-        <v>95.56103444839441</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F43" t="n">
-        <v>95.56103444839441</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G43" t="n">
         <v>95.56103444839441</v>
@@ -7569,10 +7569,10 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J43" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K43" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L43" t="n">
         <v>661.2306482927024</v>
@@ -7584,37 +7584,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O43" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P43" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q43" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R43" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S43" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T43" t="n">
-        <v>1453.060509258584</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="U43" t="n">
-        <v>1163.957642384228</v>
+        <v>1475.554715057173</v>
       </c>
       <c r="V43" t="n">
-        <v>909.2731541783409</v>
+        <v>1220.870226851286</v>
       </c>
       <c r="W43" t="n">
-        <v>619.8559841413803</v>
+        <v>1062.630648873369</v>
       </c>
       <c r="X43" t="n">
-        <v>391.866433243363</v>
+        <v>834.6410979753522</v>
       </c>
       <c r="Y43" t="n">
-        <v>277.2094992786341</v>
+        <v>613.848518831822</v>
       </c>
     </row>
     <row r="44">
@@ -7627,46 +7627,46 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F44" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551617</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H44" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089255</v>
       </c>
       <c r="I44" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J44" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K44" t="n">
-        <v>1106.569146563073</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L44" t="n">
-        <v>1557.603359811481</v>
+        <v>1971.087962216427</v>
       </c>
       <c r="M44" t="n">
-        <v>2091.135264483406</v>
+        <v>2504.619866888351</v>
       </c>
       <c r="N44" t="n">
-        <v>2637.914081542188</v>
+        <v>3484.372139114997</v>
       </c>
       <c r="O44" t="n">
-        <v>3482.142110232731</v>
+        <v>4010.914672075805</v>
       </c>
       <c r="P44" t="n">
-        <v>4195.497197679677</v>
+        <v>4405.689038432983</v>
       </c>
       <c r="Q44" t="n">
         <v>4653.975400188665</v>
@@ -7681,19 +7681,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="45">
@@ -7703,37 +7703,37 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G45" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I45" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M45" t="n">
         <v>1241.47698845434</v>
@@ -7760,7 +7760,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U45" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V45" t="n">
         <v>1808.657265216076</v>
@@ -7769,10 +7769,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X45" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y45" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="46">
@@ -7806,10 +7806,10 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J46" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K46" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L46" t="n">
         <v>661.2306482927024</v>
@@ -7821,22 +7821,22 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O46" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P46" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q46" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R46" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S46" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T46" t="n">
-        <v>1453.060509258584</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U46" t="n">
         <v>1270.093287563029</v>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747073</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8236,7 +8236,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
-        <v>212.3149906599043</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747119</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8695,25 +8695,25 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>241.9338129178262</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>344.702583647683</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8926,31 +8926,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P14" t="n">
-        <v>170.1140909277305</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9163,19 +9163,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>16.8005733590889</v>
+        <v>344.7025836476828</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9400,28 +9400,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>133.2530576400255</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504504</v>
+        <v>198.7154374299943</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -9637,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>133.2530576400246</v>
+        <v>344.7025836476844</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,7 +9713,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>8.917311333789257e-13</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -9886,19 +9886,19 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>123.4719563470494</v>
       </c>
       <c r="O26" t="n">
-        <v>133.2530576400246</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10123,19 +10123,19 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>133.2530576400255</v>
+        <v>123.4719563470494</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10351,22 +10351,22 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>132.9990175570123</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>272.8828616575881</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
         <v>212.3149906599047</v>
@@ -10585,28 +10585,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>344.7025836476828</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>67.5366377670432</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10822,28 +10822,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>219.3344627260154</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>67.5366377670432</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -11059,28 +11059,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>251.1867816683973</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>67.5366377670432</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11302,22 +11302,22 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>344.7025836476829</v>
+        <v>23.80814351663696</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -23424,16 +23424,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
         <v>96.35242040983809</v>
@@ -23472,19 +23472,19 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>272.3211098256411</v>
       </c>
       <c r="X13" t="n">
-        <v>118.02280878696</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23554,7 +23554,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>1.023181539494544e-12</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23655,7 +23655,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23667,13 +23667,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>28.93855101272557</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>16.14213605696631</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -24126,19 +24126,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>19.32499753270154</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24183,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>182.1679443159945</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24192,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24384,7 +24384,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S25" t="n">
-        <v>16.14213605697111</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>16.14213605696662</v>
       </c>
     </row>
     <row r="26">
@@ -24600,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>105.0742887270141</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24615,13 +24615,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>129.865816138453</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>45.39044159700521</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>34.70948605375841</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>64.70498037788363</v>
+        <v>23.3383677457438</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>76.85336204559587</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,25 +25359,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S37" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>94.35543628911145</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25551,7 +25551,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25563,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>3.556976973656674</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>91.26811680410505</v>
       </c>
     </row>
     <row r="41">
@@ -25788,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25800,13 +25800,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25848,13 +25848,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>129.8658161384537</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>105.0742887270132</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26043,7 +26043,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>105.0742887270134</v>
+        <v>16.14213605696682</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>897877.7408966768</v>
+        <v>897877.7408966769</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>897877.7408966768</v>
+        <v>897877.7408966769</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>897877.7408966768</v>
+        <v>897877.7408966769</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>897877.7408966768</v>
+        <v>897877.7408966769</v>
       </c>
     </row>
     <row r="10">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>897877.740896677</v>
+        <v>897877.7408966769</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>897877.7408966769</v>
+        <v>897877.740896677</v>
       </c>
     </row>
     <row r="15">
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>533677.1504117843</v>
+      </c>
+      <c r="C2" t="n">
+        <v>533677.1504117845</v>
+      </c>
+      <c r="D2" t="n">
         <v>533677.1504117844</v>
       </c>
-      <c r="C2" t="n">
-        <v>533677.1504117844</v>
-      </c>
-      <c r="D2" t="n">
-        <v>533677.1504117846</v>
-      </c>
       <c r="E2" t="n">
-        <v>516206.3229530781</v>
+        <v>516206.3229530782</v>
       </c>
       <c r="F2" t="n">
-        <v>516206.3229530781</v>
+        <v>516206.3229530779</v>
       </c>
       <c r="G2" t="n">
-        <v>516206.3229530781</v>
+        <v>516206.3229530783</v>
       </c>
       <c r="H2" t="n">
-        <v>516206.3229530781</v>
+        <v>516206.3229530783</v>
       </c>
       <c r="I2" t="n">
-        <v>516206.3229530781</v>
+        <v>516206.322953078</v>
       </c>
       <c r="J2" t="n">
         <v>516206.3229530781</v>
       </c>
       <c r="K2" t="n">
+        <v>516206.322953078</v>
+      </c>
+      <c r="L2" t="n">
+        <v>516206.3229530785</v>
+      </c>
+      <c r="M2" t="n">
         <v>516206.3229530781</v>
       </c>
-      <c r="L2" t="n">
-        <v>516206.3229530781</v>
-      </c>
-      <c r="M2" t="n">
-        <v>516206.322953078</v>
-      </c>
       <c r="N2" t="n">
-        <v>516206.3229530781</v>
+        <v>516206.3229530782</v>
       </c>
       <c r="O2" t="n">
-        <v>516206.3229530781</v>
+        <v>516206.3229530782</v>
       </c>
       <c r="P2" t="n">
         <v>516206.3229530783</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934067</v>
+        <v>727377.4139934066</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26426,40 +26426,40 @@
         <v>201064.5059277315</v>
       </c>
       <c r="E4" t="n">
-        <v>25090.72367499375</v>
+        <v>25090.7236749938</v>
       </c>
       <c r="F4" t="n">
-        <v>25090.72367499375</v>
+        <v>25090.7236749938</v>
       </c>
       <c r="G4" t="n">
-        <v>25090.72367499379</v>
+        <v>25090.7236749938</v>
       </c>
       <c r="H4" t="n">
-        <v>25090.72367499375</v>
+        <v>25090.72367499381</v>
       </c>
       <c r="I4" t="n">
-        <v>25090.72367499374</v>
+        <v>25090.72367499383</v>
       </c>
       <c r="J4" t="n">
-        <v>25090.72367499381</v>
+        <v>25090.72367499383</v>
       </c>
       <c r="K4" t="n">
+        <v>25090.72367499383</v>
+      </c>
+      <c r="L4" t="n">
         <v>25090.72367499382</v>
       </c>
-      <c r="L4" t="n">
-        <v>25090.72367499381</v>
-      </c>
       <c r="M4" t="n">
-        <v>25090.7236749938</v>
+        <v>25090.72367499382</v>
       </c>
       <c r="N4" t="n">
-        <v>25090.7236749938</v>
+        <v>25090.72367499382</v>
       </c>
       <c r="O4" t="n">
-        <v>25090.7236749938</v>
+        <v>25090.72367499382</v>
       </c>
       <c r="P4" t="n">
-        <v>25090.7236749938</v>
+        <v>25090.72367499382</v>
       </c>
     </row>
     <row r="5">
@@ -26496,10 +26496,10 @@
         <v>96383.51825371364</v>
       </c>
       <c r="K5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="L5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="M5" t="n">
         <v>96383.51825371364</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-340214.3127939011</v>
+        <v>-340214.3127939012</v>
       </c>
       <c r="C6" t="n">
+        <v>249753.5664206436</v>
+      </c>
+      <c r="D6" t="n">
         <v>249753.5664206434</v>
       </c>
-      <c r="D6" t="n">
-        <v>249753.5664206437</v>
-      </c>
       <c r="E6" t="n">
-        <v>-333317.287871294</v>
+        <v>-332712.5284592616</v>
       </c>
       <c r="F6" t="n">
-        <v>394060.1261221128</v>
+        <v>394664.8855341447</v>
       </c>
       <c r="G6" t="n">
-        <v>394060.1261221128</v>
+        <v>394664.8855341451</v>
       </c>
       <c r="H6" t="n">
-        <v>394060.1261221128</v>
+        <v>394664.8855341451</v>
       </c>
       <c r="I6" t="n">
-        <v>394060.1261221128</v>
+        <v>394664.8855341448</v>
       </c>
       <c r="J6" t="n">
-        <v>217636.9069295199</v>
+        <v>218241.6663415519</v>
       </c>
       <c r="K6" t="n">
-        <v>394060.1261221126</v>
+        <v>394664.8855341447</v>
       </c>
       <c r="L6" t="n">
-        <v>394060.1261221127</v>
+        <v>394664.8855341453</v>
       </c>
       <c r="M6" t="n">
-        <v>264417.8112831679</v>
+        <v>265022.5706952001</v>
       </c>
       <c r="N6" t="n">
-        <v>394060.1261221127</v>
+        <v>394664.8855341449</v>
       </c>
       <c r="O6" t="n">
-        <v>394060.1261221128</v>
+        <v>394664.8855341449</v>
       </c>
       <c r="P6" t="n">
-        <v>394060.1261221129</v>
+        <v>394664.8855341451</v>
       </c>
     </row>
   </sheetData>
@@ -26743,7 +26743,7 @@
         <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503744</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503744</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,19 +27384,19 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>339.531346447448</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -27429,7 +27429,7 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>6.747420460280892</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27438,7 +27438,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27539,19 +27539,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>107.5829646831822</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27587,13 +27587,13 @@
         <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>56.01837628787166</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27627,16 +27627,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>393.2545171770619</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>55.56968306875812</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27836,13 +27836,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>63.3731647155137</v>
+        <v>46.83478528866308</v>
       </c>
     </row>
     <row r="8">
@@ -27861,10 +27861,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27900,10 +27900,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -27912,13 +27912,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>98.95375469339439</v>
+        <v>113.9539220428404</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>120.1051426060686</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28076,10 +28076,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>123.9289676594881</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28386,7 +28386,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>-1.564980526122131e-12</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -28563,7 +28563,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-8.617665311508712e-13</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28985,7 +28985,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>-5.190518744971736e-12</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -29231,7 +29231,7 @@
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>-5.190518744971736e-12</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31843,7 +31843,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
         <v>508.9565619138796</v>
@@ -32083,7 +32083,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
         <v>593.9283018233475</v>
@@ -32098,7 +32098,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
@@ -32323,7 +32323,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N18" t="n">
         <v>609.6478166837925</v>
@@ -32335,7 +32335,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
@@ -32569,10 +32569,10 @@
         <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
@@ -32700,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I23" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32785,40 +32785,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O24" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32858,13 +32858,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32873,16 +32873,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32891,16 +32891,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I26" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J26" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T26" t="n">
         <v>19.1778794245112</v>
@@ -33022,40 +33022,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O27" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33095,13 +33095,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H28" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
@@ -33110,16 +33110,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M28" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P28" t="n">
         <v>237.6785118802169</v>
@@ -33128,16 +33128,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I29" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J29" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T29" t="n">
         <v>19.1778794245112</v>
@@ -33259,40 +33259,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O30" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33332,13 +33332,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H31" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
@@ -33347,16 +33347,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M31" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P31" t="n">
         <v>237.6785118802169</v>
@@ -33365,16 +33365,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I32" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J32" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T32" t="n">
         <v>19.1778794245112</v>
@@ -33496,40 +33496,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O33" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002933</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33569,13 +33569,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H34" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
@@ -33584,16 +33584,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M34" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P34" t="n">
         <v>237.6785118802169</v>
@@ -33602,16 +33602,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I35" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J35" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
@@ -33733,40 +33733,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O36" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33806,13 +33806,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
@@ -33821,16 +33821,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M37" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P37" t="n">
         <v>237.6785118802169</v>
@@ -33839,16 +33839,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I38" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J38" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
@@ -33970,40 +33970,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O39" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34043,13 +34043,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H40" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
@@ -34058,16 +34058,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M40" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P40" t="n">
         <v>237.6785118802169</v>
@@ -34076,16 +34076,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I41" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J41" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
@@ -34207,40 +34207,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O42" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34280,13 +34280,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
@@ -34295,16 +34295,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M43" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P43" t="n">
         <v>237.6785118802169</v>
@@ -34313,16 +34313,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I44" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J44" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T44" t="n">
         <v>19.1778794245112</v>
@@ -34444,40 +34444,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837931</v>
       </c>
       <c r="O45" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34517,13 +34517,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H46" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
@@ -34532,16 +34532,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M46" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P46" t="n">
         <v>237.6785118802169</v>
@@ -34550,16 +34550,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535575</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34956,7 +34956,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.9975062898686</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35263,16 +35263,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535621</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35415,25 +35415,25 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L11" t="n">
-        <v>697.5239273101583</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>883.6236994779098</v>
       </c>
       <c r="N11" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
         <v>720.5606943908545</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35491,7 +35491,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
         <v>370.4021821340054</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L14" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>888.8531821509645</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P14" t="n">
-        <v>568.8760771471024</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35731,7 +35731,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340055</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
         <v>451.7942679013292</v>
@@ -35746,7 +35746,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35883,19 +35883,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L17" t="n">
-        <v>472.3906877514211</v>
+        <v>800.292698040015</v>
       </c>
       <c r="M17" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
         <v>508.0530008882191</v>
@@ -35907,7 +35907,7 @@
         <v>463.1092954636242</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35971,7 +35971,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N18" t="n">
         <v>478.3061046004592</v>
@@ -35983,7 +35983,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36120,28 +36120,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>324.040058608738</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L20" t="n">
-        <v>873.2513289427826</v>
+        <v>654.3055518223265</v>
       </c>
       <c r="M20" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R20" t="n">
         <v>59.61319854222478</v>
@@ -36217,10 +36217,10 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36281,7 +36281,7 @@
         <v>45.57841661306622</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443144</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L23" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M23" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N23" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O23" t="n">
-        <v>641.3060585282437</v>
+        <v>852.7555845359034</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L25" t="n">
         <v>319.7573721701981</v>
@@ -36527,16 +36527,16 @@
         <v>347.6333793934838</v>
       </c>
       <c r="N25" t="n">
-        <v>344.8569461675349</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P25" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L26" t="n">
-        <v>873.2513289427826</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M26" t="n">
-        <v>988.4346493230593</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N26" t="n">
-        <v>989.6487598248956</v>
+        <v>675.7737917599607</v>
       </c>
       <c r="O26" t="n">
-        <v>641.3060585282437</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P27" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K28" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L28" t="n">
         <v>319.7573721701981</v>
@@ -36767,13 +36767,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O28" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P28" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q28" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L29" t="n">
-        <v>873.2513289427826</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M29" t="n">
-        <v>988.4346493230593</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N29" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O29" t="n">
-        <v>641.3060585282446</v>
+        <v>631.5249572352684</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P30" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K31" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L31" t="n">
         <v>319.7573721701981</v>
@@ -37004,13 +37004,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O31" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P31" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q31" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,28 +37068,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M32" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N32" t="n">
-        <v>989.6487598248956</v>
+        <v>685.3008529699235</v>
       </c>
       <c r="O32" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P32" t="n">
-        <v>671.6448478769599</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q32" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R32" t="n">
         <v>125.3296184152072</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P33" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859631</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K34" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L34" t="n">
         <v>319.7573721701981</v>
@@ -37241,13 +37241,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O34" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P34" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q34" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,28 +37305,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K35" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L35" t="n">
-        <v>800.292698040015</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302268</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O35" t="n">
-        <v>508.0530008882191</v>
+        <v>575.5896386552622</v>
       </c>
       <c r="P35" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q35" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R35" t="n">
         <v>125.3296184152072</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P36" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K37" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L37" t="n">
         <v>319.7573721701981</v>
@@ -37478,13 +37478,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O37" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P37" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q37" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,28 +37542,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L38" t="n">
-        <v>674.9245771183475</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M38" t="n">
-        <v>988.4346493230593</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O38" t="n">
-        <v>508.0530008882191</v>
+        <v>575.5896386552622</v>
       </c>
       <c r="P38" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q38" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R38" t="n">
         <v>125.3296184152072</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P39" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K40" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L40" t="n">
         <v>319.7573721701981</v>
@@ -37715,13 +37715,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O40" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P40" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q40" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,28 +37779,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K41" t="n">
-        <v>588.3780682237978</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L41" t="n">
-        <v>873.2513289427826</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302268</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O41" t="n">
-        <v>508.0530008882191</v>
+        <v>575.5896386552622</v>
       </c>
       <c r="P41" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q41" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R41" t="n">
         <v>125.3296184152072</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K43" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L43" t="n">
         <v>319.7573721701981</v>
@@ -37952,13 +37952,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O43" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P43" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q43" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,25 +38019,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K44" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O44" t="n">
-        <v>852.755584535902</v>
+        <v>531.861144404856</v>
       </c>
       <c r="P44" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R44" t="n">
         <v>125.3296184152072</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004598</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P45" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K46" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L46" t="n">
         <v>319.7573721701981</v>
@@ -38189,13 +38189,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O46" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P46" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
